--- a/excel/pokemon.xlsx
+++ b/excel/pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shimbotatsuya/Desktop/environment/arutyukarakara/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CD6002-8456-EE42-AA3A-A3A4B853FFF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C4E8EA-EE60-7345-8FAA-FA6820A6E910}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1860" windowWidth="21160" windowHeight="13660" xr2:uid="{86EF8FE1-EF90-2347-B762-F773435E8F81}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="15960" xr2:uid="{86EF8FE1-EF90-2347-B762-F773435E8F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="451">
   <si>
     <t>サルノリ</t>
     <phoneticPr fontId="1"/>
@@ -1176,10 +1176,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カモネギ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ネギガナイト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1205,10 +1201,6 @@
   </si>
   <si>
     <t>ズルズキン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マッギョ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1254,10 +1246,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サニーゴ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サニゴーン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1323,6 +1311,521 @@
   </si>
   <si>
     <t>ドガース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウソハチ</t>
+  </si>
+  <si>
+    <t>ウソッキー</t>
+  </si>
+  <si>
+    <t>ピィ</t>
+  </si>
+  <si>
+    <t>ピッピ</t>
+  </si>
+  <si>
+    <t>ピクシー</t>
+  </si>
+  <si>
+    <t>トゲピー</t>
+  </si>
+  <si>
+    <t>トゲチック</t>
+  </si>
+  <si>
+    <t>トゲキッス</t>
+  </si>
+  <si>
+    <t>ゴンベ</t>
+  </si>
+  <si>
+    <t>カビゴン</t>
+  </si>
+  <si>
+    <t>モンメン</t>
+  </si>
+  <si>
+    <t>エルフーン</t>
+  </si>
+  <si>
+    <t>サイホーン</t>
+  </si>
+  <si>
+    <t>サイドン</t>
+  </si>
+  <si>
+    <t>ドサイドン</t>
+  </si>
+  <si>
+    <t>ゴチム</t>
+  </si>
+  <si>
+    <t>ゴチミル</t>
+  </si>
+  <si>
+    <t>ゴチルゼル</t>
+  </si>
+  <si>
+    <t>ユニラン</t>
+  </si>
+  <si>
+    <t>ダブラン</t>
+  </si>
+  <si>
+    <t>ランクルス</t>
+  </si>
+  <si>
+    <t>カブルモ</t>
+  </si>
+  <si>
+    <t>シュバルゴ</t>
+  </si>
+  <si>
+    <t>チョボマキ</t>
+  </si>
+  <si>
+    <t>アギルダー</t>
+  </si>
+  <si>
+    <t>リグレー</t>
+  </si>
+  <si>
+    <t>オーベム</t>
+  </si>
+  <si>
+    <t>クマシュン</t>
+  </si>
+  <si>
+    <t>ツンベアー</t>
+  </si>
+  <si>
+    <t>ワシボン</t>
+  </si>
+  <si>
+    <t>ウォーグル</t>
+  </si>
+  <si>
+    <t>バルチャイ</t>
+  </si>
+  <si>
+    <t>バルジーナ</t>
+  </si>
+  <si>
+    <t>スコルピ</t>
+  </si>
+  <si>
+    <t>ドラピオン</t>
+  </si>
+  <si>
+    <t>ヒトモシ</t>
+  </si>
+  <si>
+    <t>ランプラー</t>
+  </si>
+  <si>
+    <t>シャンデラ</t>
+  </si>
+  <si>
+    <t>マーイーカ</t>
+  </si>
+  <si>
+    <t>カラマネロ</t>
+  </si>
+  <si>
+    <t>ニューラ</t>
+  </si>
+  <si>
+    <t>マニューラ</t>
+  </si>
+  <si>
+    <t>ヤミラミ</t>
+  </si>
+  <si>
+    <t>クチート</t>
+  </si>
+  <si>
+    <t>マラカッチ</t>
+  </si>
+  <si>
+    <t>シンボラー</t>
+  </si>
+  <si>
+    <t>リオル</t>
+  </si>
+  <si>
+    <t>ルカリオ</t>
+  </si>
+  <si>
+    <t>コータス</t>
+  </si>
+  <si>
+    <t>ミミッキュ</t>
+  </si>
+  <si>
+    <t>ゾウドウ</t>
+  </si>
+  <si>
+    <t>ダイオウドウ</t>
+  </si>
+  <si>
+    <t>ハリーセン</t>
+  </si>
+  <si>
+    <t>プルリル</t>
+  </si>
+  <si>
+    <t>ブルンゲル</t>
+  </si>
+  <si>
+    <t>ヒドイデ</t>
+  </si>
+  <si>
+    <t>ドヒドイデ</t>
+  </si>
+  <si>
+    <t>ウッウ</t>
+  </si>
+  <si>
+    <t>エレズン</t>
+  </si>
+  <si>
+    <t>ストリンダー</t>
+  </si>
+  <si>
+    <t>スナヘビ</t>
+  </si>
+  <si>
+    <t>サダイジャ</t>
+  </si>
+  <si>
+    <t>ヒポポタス</t>
+  </si>
+  <si>
+    <t>カバルドン</t>
+  </si>
+  <si>
+    <t>アイアント</t>
+  </si>
+  <si>
+    <t>クイタラン</t>
+  </si>
+  <si>
+    <t>エリキテル</t>
+  </si>
+  <si>
+    <t>エレザード</t>
+  </si>
+  <si>
+    <t>ルチャブル</t>
+  </si>
+  <si>
+    <t>ナックラー</t>
+  </si>
+  <si>
+    <t>ビブラーバ</t>
+  </si>
+  <si>
+    <t>フライゴン</t>
+  </si>
+  <si>
+    <t>キバゴ</t>
+  </si>
+  <si>
+    <t>オノンド</t>
+  </si>
+  <si>
+    <t>オノノクス</t>
+  </si>
+  <si>
+    <t>デスマス</t>
+  </si>
+  <si>
+    <t>デスバーン</t>
+  </si>
+  <si>
+    <t>デスカーン</t>
+  </si>
+  <si>
+    <t>ヒトツキ</t>
+  </si>
+  <si>
+    <t>ニダンギル</t>
+  </si>
+  <si>
+    <t>ギルガルド(シールド)</t>
+  </si>
+  <si>
+    <t>ギルガルド(ブレード)</t>
+  </si>
+  <si>
+    <t>ヤバチャ</t>
+  </si>
+  <si>
+    <t>ポットデス</t>
+  </si>
+  <si>
+    <t>ボクレー</t>
+  </si>
+  <si>
+    <t>オーロット</t>
+  </si>
+  <si>
+    <t>ネマシュ</t>
+  </si>
+  <si>
+    <t>マシェード</t>
+  </si>
+  <si>
+    <t>ヤレユータン</t>
+  </si>
+  <si>
+    <t>ナゲツケサル</t>
+  </si>
+  <si>
+    <t>モルペコ</t>
+  </si>
+  <si>
+    <t>タイレーツ</t>
+  </si>
+  <si>
+    <t>ジジーロン</t>
+  </si>
+  <si>
+    <t>バクガメス</t>
+  </si>
+  <si>
+    <t>トゲデマル</t>
+  </si>
+  <si>
+    <t>ユキハミ</t>
+  </si>
+  <si>
+    <t>モスノウ</t>
+  </si>
+  <si>
+    <t>タタッコ</t>
+  </si>
+  <si>
+    <t>オトスパス</t>
+  </si>
+  <si>
+    <t>バチンウニ</t>
+  </si>
+  <si>
+    <t>タマンタ</t>
+  </si>
+  <si>
+    <t>マンタイン</t>
+  </si>
+  <si>
+    <t>ホエルコ</t>
+  </si>
+  <si>
+    <t>ホエルオー</t>
+  </si>
+  <si>
+    <t>カチコール</t>
+  </si>
+  <si>
+    <t>クレベース</t>
+  </si>
+  <si>
+    <t>ダダリン</t>
+  </si>
+  <si>
+    <t>ラプラス</t>
+  </si>
+  <si>
+    <t>ルナトーン</t>
+  </si>
+  <si>
+    <t>ソルロック</t>
+  </si>
+  <si>
+    <t>マネネ</t>
+  </si>
+  <si>
+    <t>バリヤード</t>
+  </si>
+  <si>
+    <t>バリコオル</t>
+  </si>
+  <si>
+    <t>コオリッポ(アイス)</t>
+  </si>
+  <si>
+    <t>コオリッポ(ナイス)</t>
+  </si>
+  <si>
+    <t>ジュラルドン</t>
+  </si>
+  <si>
+    <t>ロトム</t>
+  </si>
+  <si>
+    <t>ヒートロトム</t>
+  </si>
+  <si>
+    <t>ウォッシュロトム</t>
+  </si>
+  <si>
+    <t>フロストロトム</t>
+  </si>
+  <si>
+    <t>スピンロトム</t>
+  </si>
+  <si>
+    <t>カットロトム</t>
+  </si>
+  <si>
+    <t>メタモン</t>
+  </si>
+  <si>
+    <t>パッチラゴン</t>
+  </si>
+  <si>
+    <t>パッチルドン</t>
+  </si>
+  <si>
+    <t>ウオノラゴン</t>
+  </si>
+  <si>
+    <t>ウオチルドン</t>
+  </si>
+  <si>
+    <t>ヒトカゲ</t>
+  </si>
+  <si>
+    <t>リザード</t>
+  </si>
+  <si>
+    <t>リザードン</t>
+  </si>
+  <si>
+    <t>タイプ：ヌル</t>
+  </si>
+  <si>
+    <t>シルヴァディ</t>
+  </si>
+  <si>
+    <t>ヨーギラス</t>
+  </si>
+  <si>
+    <t>サナギラス</t>
+  </si>
+  <si>
+    <t>バンギラス</t>
+  </si>
+  <si>
+    <t>モノズ</t>
+  </si>
+  <si>
+    <t>ジヘッド</t>
+  </si>
+  <si>
+    <t>サザンドラ</t>
+  </si>
+  <si>
+    <t>ヌメラ</t>
+  </si>
+  <si>
+    <t>ヌメイル</t>
+  </si>
+  <si>
+    <t>ヌメルゴン</t>
+  </si>
+  <si>
+    <t>ジャラコ</t>
+  </si>
+  <si>
+    <t>ジャランゴ</t>
+  </si>
+  <si>
+    <t>ジャラランガ</t>
+  </si>
+  <si>
+    <t>ドラメシヤ</t>
+  </si>
+  <si>
+    <t>ドロンチ</t>
+  </si>
+  <si>
+    <t>ドラパルト</t>
+  </si>
+  <si>
+    <t>ザシアン(歴戦の勇者)</t>
+  </si>
+  <si>
+    <t>ザシアン(剣の王)</t>
+  </si>
+  <si>
+    <t>ザマゼンタ(歴戦の勇者)</t>
+  </si>
+  <si>
+    <t>ザマゼンタ(盾の王)</t>
+  </si>
+  <si>
+    <t>ムゲンダイナ</t>
+  </si>
+  <si>
+    <t>マタドガス(ガラル)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サニーゴ(ガラル)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カモネギ(ガラル)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッギョ(ガラル)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デスマス(ガラル)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポニータ(ガラル)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギャロップ(ガラル)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イエッサン(♂)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イエッサン(♀)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリヤード(ガラル)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダルマッカ(ガラル)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒヒダルマ(ガラル)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イシヘンジン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒヒダルマ(ガラル, ダルマ)</t>
+    <rPh sb="0" eb="2">
+      <t>ダルマ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1330,7 +1833,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1343,6 +1846,22 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1369,8 +1888,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1687,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6AA1FF-6BF9-EA4D-844D-33D9FDB75BF2}">
-  <dimension ref="A1:P412"/>
+  <dimension ref="A1:P422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="N242" sqref="N242"/>
+    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="99" workbookViewId="0">
+      <selection activeCell="D400" sqref="D400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10633,7 +11161,7 @@
         <v>2180</v>
       </c>
       <c r="C227" t="s">
-        <v>255</v>
+        <v>439</v>
       </c>
       <c r="D227">
         <v>52</v>
@@ -10661,7 +11189,7 @@
       </c>
       <c r="P227" t="str">
         <f t="shared" si="0"/>
-        <v>Pokemon.create(zukan_id: 2180, name: "カモネギ", hit_point: 52, attack: 95, block: 55, contact: 58, defense: 62, speed: 55, category_1: 7, category_2: 0)</v>
+        <v>Pokemon.create(zukan_id: 2180, name: "カモネギ(ガラル)", hit_point: 52, attack: 95, block: 55, contact: 58, defense: 62, speed: 55, category_1: 7, category_2: 0)</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -10672,7 +11200,7 @@
         <v>2190</v>
       </c>
       <c r="C228" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D228">
         <v>62</v>
@@ -10711,7 +11239,7 @@
         <v>2200</v>
       </c>
       <c r="C229" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D229">
         <v>75</v>
@@ -10750,7 +11278,7 @@
         <v>2210</v>
       </c>
       <c r="C230" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D230">
         <v>125</v>
@@ -10789,7 +11317,7 @@
         <v>2220</v>
       </c>
       <c r="C231" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D231">
         <v>48</v>
@@ -10828,7 +11356,7 @@
         <v>2230</v>
       </c>
       <c r="C232" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D232">
         <v>83</v>
@@ -10867,7 +11395,7 @@
         <v>2240</v>
       </c>
       <c r="C233" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D233">
         <v>50</v>
@@ -10906,7 +11434,7 @@
         <v>2250</v>
       </c>
       <c r="C234" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D234">
         <v>65</v>
@@ -10945,7 +11473,7 @@
         <v>2260</v>
       </c>
       <c r="C235" t="s">
-        <v>263</v>
+        <v>440</v>
       </c>
       <c r="D235">
         <v>109</v>
@@ -10973,7 +11501,7 @@
       </c>
       <c r="P235" t="str">
         <f t="shared" si="0"/>
-        <v>Pokemon.create(zukan_id: 2260, name: "マッギョ", hit_point: 109, attack: 81, block: 99, contact: 66, defense: 84, speed: 32, category_1: 9, category_2: 17)</v>
+        <v>Pokemon.create(zukan_id: 2260, name: "マッギョ(ガラル)", hit_point: 109, attack: 81, block: 99, contact: 66, defense: 84, speed: 32, category_1: 9, category_2: 17)</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -10984,7 +11512,7 @@
         <v>2270</v>
       </c>
       <c r="C236" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D236">
         <v>20</v>
@@ -11023,7 +11551,7 @@
         <v>2280</v>
       </c>
       <c r="C237" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D237">
         <v>50</v>
@@ -11062,7 +11590,7 @@
         <v>2290</v>
       </c>
       <c r="C238" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D238">
         <v>110</v>
@@ -11101,7 +11629,7 @@
         <v>2300</v>
       </c>
       <c r="C239" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D239">
         <v>76</v>
@@ -11140,7 +11668,7 @@
         <v>2310</v>
       </c>
       <c r="C240" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D240">
         <v>111</v>
@@ -11179,7 +11707,7 @@
         <v>2320</v>
       </c>
       <c r="C241" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D241">
         <v>25</v>
@@ -11218,7 +11746,7 @@
         <v>2330</v>
       </c>
       <c r="C242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D242">
         <v>75</v>
@@ -11257,7 +11785,7 @@
         <v>2340</v>
       </c>
       <c r="C243" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D243">
         <v>42</v>
@@ -11296,7 +11824,7 @@
         <v>2350</v>
       </c>
       <c r="C244" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D244">
         <v>72</v>
@@ -11335,7 +11863,7 @@
         <v>2360</v>
       </c>
       <c r="C245" t="s">
-        <v>273</v>
+        <v>438</v>
       </c>
       <c r="D245">
         <v>60</v>
@@ -11363,7 +11891,7 @@
       </c>
       <c r="P245" t="str">
         <f t="shared" si="0"/>
-        <v>Pokemon.create(zukan_id: 2360, name: "サニーゴ", hit_point: 60, attack: 55, block: 100, contact: 65, defense: 100, speed: 30, category_1: 14, category_2: 0)</v>
+        <v>Pokemon.create(zukan_id: 2360, name: "サニーゴ(ガラル)", hit_point: 60, attack: 55, block: 100, contact: 65, defense: 100, speed: 30, category_1: 14, category_2: 0)</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -11374,7 +11902,7 @@
         <v>2370</v>
       </c>
       <c r="C246" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D246">
         <v>60</v>
@@ -11413,7 +11941,7 @@
         <v>2380</v>
       </c>
       <c r="C247" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D247">
         <v>45</v>
@@ -11452,7 +11980,7 @@
         <v>2390</v>
       </c>
       <c r="C248" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D248">
         <v>65</v>
@@ -11491,7 +12019,7 @@
         <v>2400</v>
       </c>
       <c r="C249" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D249">
         <v>95</v>
@@ -11530,7 +12058,7 @@
         <v>2410</v>
       </c>
       <c r="C250" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D250">
         <v>42</v>
@@ -11569,7 +12097,7 @@
         <v>2420</v>
       </c>
       <c r="C251" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D251">
         <v>57</v>
@@ -11608,7 +12136,7 @@
         <v>2430</v>
       </c>
       <c r="C252" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D252">
         <v>57</v>
@@ -11647,7 +12175,7 @@
         <v>2440</v>
       </c>
       <c r="C253" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D253">
         <v>48</v>
@@ -11686,7 +12214,7 @@
         <v>2450</v>
       </c>
       <c r="C254" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D254">
         <v>68</v>
@@ -11725,7 +12253,7 @@
         <v>2460</v>
       </c>
       <c r="C255" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D255">
         <v>45</v>
@@ -11764,7 +12292,7 @@
         <v>2470</v>
       </c>
       <c r="C256" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D256">
         <v>65</v>
@@ -11803,7 +12331,7 @@
         <v>2480</v>
       </c>
       <c r="C257" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D257">
         <v>120</v>
@@ -11842,7 +12370,7 @@
         <v>2490</v>
       </c>
       <c r="C258" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D258">
         <v>75</v>
@@ -11869,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="P258" t="str">
-        <f t="shared" ref="P258:P259" si="1">"Pokemon.create(zukan_id: "&amp;B258&amp;", name: """&amp;C258&amp;""", hit_point: "&amp;D258&amp;", attack: "&amp;E258&amp;", block: "&amp;F258&amp;", contact: "&amp;G258&amp;", defense: "&amp;H258&amp;", speed: "&amp;I258&amp;", category_1: "&amp;J258&amp;", category_2: "&amp;K258&amp;")"</f>
+        <f t="shared" ref="P258:P422" si="1">"Pokemon.create(zukan_id: "&amp;B258&amp;", name: """&amp;C258&amp;""", hit_point: "&amp;D258&amp;", attack: "&amp;E258&amp;", block: "&amp;F258&amp;", contact: "&amp;G258&amp;", defense: "&amp;H258&amp;", speed: "&amp;I258&amp;", category_1: "&amp;J258&amp;", category_2: "&amp;K258&amp;")"</f>
         <v>Pokemon.create(zukan_id: 2490, name: "ダゲキ", hit_point: 75, attack: 125, block: 75, contact: 30, defense: 75, speed: 85, category_1: 7, category_2: 0)</v>
       </c>
     </row>
@@ -11881,7 +12409,7 @@
         <v>2500</v>
       </c>
       <c r="C259" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D259">
         <v>40</v>
@@ -11916,765 +12444,6357 @@
       <c r="A260">
         <v>259</v>
       </c>
+      <c r="B260">
+        <v>2510</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D260" s="3">
+        <v>65</v>
+      </c>
+      <c r="E260" s="3">
+        <v>90</v>
+      </c>
+      <c r="F260" s="3">
+        <v>120</v>
+      </c>
+      <c r="G260" s="3">
+        <v>85</v>
+      </c>
+      <c r="H260" s="3">
+        <v>70</v>
+      </c>
+      <c r="I260" s="3">
+        <v>60</v>
+      </c>
+      <c r="J260" s="2">
+        <v>8</v>
+      </c>
+      <c r="K260" s="3">
+        <v>18</v>
+      </c>
+      <c r="P260" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2510, name: "マタドガス(ガラル)", hit_point: 65, attack: 90, block: 120, contact: 85, defense: 70, speed: 60, category_1: 8, category_2: 18)</v>
+      </c>
     </row>
     <row r="261" spans="1:16">
       <c r="A261">
         <v>260</v>
       </c>
+      <c r="B261">
+        <v>2520</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D261" s="3">
+        <v>50</v>
+      </c>
+      <c r="E261" s="3">
+        <v>80</v>
+      </c>
+      <c r="F261" s="3">
+        <v>95</v>
+      </c>
+      <c r="G261" s="3">
+        <v>10</v>
+      </c>
+      <c r="H261" s="3">
+        <v>45</v>
+      </c>
+      <c r="I261" s="3">
+        <v>10</v>
+      </c>
+      <c r="J261" s="2">
+        <v>13</v>
+      </c>
+      <c r="K261" s="3">
+        <v>0</v>
+      </c>
+      <c r="P261" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2520, name: "ウソハチ", hit_point: 50, attack: 80, block: 95, contact: 10, defense: 45, speed: 10, category_1: 13, category_2: 0)</v>
+      </c>
     </row>
     <row r="262" spans="1:16">
       <c r="A262">
         <v>261</v>
       </c>
+      <c r="B262">
+        <v>2530</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D262" s="3">
+        <v>70</v>
+      </c>
+      <c r="E262" s="3">
+        <v>100</v>
+      </c>
+      <c r="F262" s="3">
+        <v>115</v>
+      </c>
+      <c r="G262" s="3">
+        <v>30</v>
+      </c>
+      <c r="H262" s="3">
+        <v>65</v>
+      </c>
+      <c r="I262" s="3">
+        <v>30</v>
+      </c>
+      <c r="J262" s="2">
+        <v>13</v>
+      </c>
+      <c r="K262" s="3">
+        <v>0</v>
+      </c>
+      <c r="P262" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2530, name: "ウソッキー", hit_point: 70, attack: 100, block: 115, contact: 30, defense: 65, speed: 30, category_1: 13, category_2: 0)</v>
+      </c>
     </row>
     <row r="263" spans="1:16">
       <c r="A263">
         <v>262</v>
       </c>
+      <c r="B263">
+        <v>2540</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D263" s="3">
+        <v>50</v>
+      </c>
+      <c r="E263" s="3">
+        <v>25</v>
+      </c>
+      <c r="F263" s="3">
+        <v>28</v>
+      </c>
+      <c r="G263" s="3">
+        <v>45</v>
+      </c>
+      <c r="H263" s="3">
+        <v>55</v>
+      </c>
+      <c r="I263" s="3">
+        <v>15</v>
+      </c>
+      <c r="J263" s="2">
+        <v>18</v>
+      </c>
+      <c r="K263" s="3">
+        <v>0</v>
+      </c>
+      <c r="P263" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2540, name: "ピィ", hit_point: 50, attack: 25, block: 28, contact: 45, defense: 55, speed: 15, category_1: 18, category_2: 0)</v>
+      </c>
     </row>
     <row r="264" spans="1:16">
       <c r="A264">
         <v>263</v>
       </c>
+      <c r="B264">
+        <v>2550</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D264" s="3">
+        <v>70</v>
+      </c>
+      <c r="E264" s="3">
+        <v>45</v>
+      </c>
+      <c r="F264" s="3">
+        <v>48</v>
+      </c>
+      <c r="G264" s="3">
+        <v>60</v>
+      </c>
+      <c r="H264" s="3">
+        <v>65</v>
+      </c>
+      <c r="I264" s="3">
+        <v>35</v>
+      </c>
+      <c r="J264" s="2">
+        <v>18</v>
+      </c>
+      <c r="K264" s="3">
+        <v>0</v>
+      </c>
+      <c r="P264" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2550, name: "ピッピ", hit_point: 70, attack: 45, block: 48, contact: 60, defense: 65, speed: 35, category_1: 18, category_2: 0)</v>
+      </c>
     </row>
     <row r="265" spans="1:16">
       <c r="A265">
         <v>264</v>
       </c>
+      <c r="B265">
+        <v>2560</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D265" s="3">
+        <v>95</v>
+      </c>
+      <c r="E265" s="3">
+        <v>70</v>
+      </c>
+      <c r="F265" s="3">
+        <v>73</v>
+      </c>
+      <c r="G265" s="3">
+        <v>95</v>
+      </c>
+      <c r="H265" s="3">
+        <v>90</v>
+      </c>
+      <c r="I265" s="3">
+        <v>60</v>
+      </c>
+      <c r="J265" s="2">
+        <v>18</v>
+      </c>
+      <c r="K265" s="3">
+        <v>0</v>
+      </c>
+      <c r="P265" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2560, name: "ピクシー", hit_point: 95, attack: 70, block: 73, contact: 95, defense: 90, speed: 60, category_1: 18, category_2: 0)</v>
+      </c>
     </row>
     <row r="266" spans="1:16">
       <c r="A266">
         <v>265</v>
       </c>
+      <c r="B266">
+        <v>2570</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D266" s="3">
+        <v>35</v>
+      </c>
+      <c r="E266" s="3">
+        <v>20</v>
+      </c>
+      <c r="F266" s="3">
+        <v>65</v>
+      </c>
+      <c r="G266" s="3">
+        <v>40</v>
+      </c>
+      <c r="H266" s="3">
+        <v>65</v>
+      </c>
+      <c r="I266" s="3">
+        <v>20</v>
+      </c>
+      <c r="J266" s="2">
+        <v>18</v>
+      </c>
+      <c r="K266" s="3">
+        <v>0</v>
+      </c>
+      <c r="P266" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2570, name: "トゲピー", hit_point: 35, attack: 20, block: 65, contact: 40, defense: 65, speed: 20, category_1: 18, category_2: 0)</v>
+      </c>
     </row>
     <row r="267" spans="1:16">
       <c r="A267">
         <v>266</v>
       </c>
+      <c r="B267">
+        <v>2580</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D267" s="3">
+        <v>55</v>
+      </c>
+      <c r="E267" s="3">
+        <v>40</v>
+      </c>
+      <c r="F267" s="3">
+        <v>85</v>
+      </c>
+      <c r="G267" s="3">
+        <v>80</v>
+      </c>
+      <c r="H267" s="3">
+        <v>105</v>
+      </c>
+      <c r="I267" s="3">
+        <v>40</v>
+      </c>
+      <c r="J267" s="2">
+        <v>18</v>
+      </c>
+      <c r="K267" s="3">
+        <v>10</v>
+      </c>
+      <c r="P267" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2580, name: "トゲチック", hit_point: 55, attack: 40, block: 85, contact: 80, defense: 105, speed: 40, category_1: 18, category_2: 10)</v>
+      </c>
     </row>
     <row r="268" spans="1:16">
       <c r="A268">
         <v>267</v>
       </c>
+      <c r="B268">
+        <v>2590</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D268" s="3">
+        <v>85</v>
+      </c>
+      <c r="E268" s="3">
+        <v>50</v>
+      </c>
+      <c r="F268" s="3">
+        <v>95</v>
+      </c>
+      <c r="G268" s="3">
+        <v>120</v>
+      </c>
+      <c r="H268" s="3">
+        <v>115</v>
+      </c>
+      <c r="I268" s="3">
+        <v>80</v>
+      </c>
+      <c r="J268" s="2">
+        <v>18</v>
+      </c>
+      <c r="K268" s="3">
+        <v>10</v>
+      </c>
+      <c r="P268" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2590, name: "トゲキッス", hit_point: 85, attack: 50, block: 95, contact: 120, defense: 115, speed: 80, category_1: 18, category_2: 10)</v>
+      </c>
     </row>
     <row r="269" spans="1:16">
       <c r="A269">
         <v>268</v>
       </c>
+      <c r="B269">
+        <v>2600</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D269" s="3">
+        <v>135</v>
+      </c>
+      <c r="E269" s="3">
+        <v>85</v>
+      </c>
+      <c r="F269" s="3">
+        <v>40</v>
+      </c>
+      <c r="G269" s="3">
+        <v>40</v>
+      </c>
+      <c r="H269" s="3">
+        <v>85</v>
+      </c>
+      <c r="I269" s="3">
+        <v>5</v>
+      </c>
+      <c r="J269" s="2">
+        <v>1</v>
+      </c>
+      <c r="K269" s="3">
+        <v>0</v>
+      </c>
+      <c r="P269" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2600, name: "ゴンベ", hit_point: 135, attack: 85, block: 40, contact: 40, defense: 85, speed: 5, category_1: 1, category_2: 0)</v>
+      </c>
     </row>
     <row r="270" spans="1:16">
       <c r="A270">
         <v>269</v>
       </c>
+      <c r="B270">
+        <v>2610</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D270" s="3">
+        <v>160</v>
+      </c>
+      <c r="E270" s="3">
+        <v>110</v>
+      </c>
+      <c r="F270" s="3">
+        <v>65</v>
+      </c>
+      <c r="G270" s="3">
+        <v>65</v>
+      </c>
+      <c r="H270" s="3">
+        <v>110</v>
+      </c>
+      <c r="I270" s="3">
+        <v>30</v>
+      </c>
+      <c r="J270" s="2">
+        <v>1</v>
+      </c>
+      <c r="K270" s="3">
+        <v>0</v>
+      </c>
+      <c r="P270" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2610, name: "カビゴン", hit_point: 160, attack: 110, block: 65, contact: 65, defense: 110, speed: 30, category_1: 1, category_2: 0)</v>
+      </c>
     </row>
     <row r="271" spans="1:16">
       <c r="A271">
         <v>270</v>
       </c>
+      <c r="B271">
+        <v>2620</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D271" s="3">
+        <v>40</v>
+      </c>
+      <c r="E271" s="3">
+        <v>27</v>
+      </c>
+      <c r="F271" s="3">
+        <v>60</v>
+      </c>
+      <c r="G271" s="3">
+        <v>37</v>
+      </c>
+      <c r="H271" s="3">
+        <v>50</v>
+      </c>
+      <c r="I271" s="3">
+        <v>66</v>
+      </c>
+      <c r="J271" s="2">
+        <v>5</v>
+      </c>
+      <c r="K271" s="3">
+        <v>18</v>
+      </c>
+      <c r="P271" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2620, name: "モンメン", hit_point: 40, attack: 27, block: 60, contact: 37, defense: 50, speed: 66, category_1: 5, category_2: 18)</v>
+      </c>
     </row>
     <row r="272" spans="1:16">
       <c r="A272">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
+      <c r="B272">
+        <v>2630</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D272" s="3">
+        <v>60</v>
+      </c>
+      <c r="E272" s="3">
+        <v>67</v>
+      </c>
+      <c r="F272" s="3">
+        <v>85</v>
+      </c>
+      <c r="G272" s="3">
+        <v>77</v>
+      </c>
+      <c r="H272" s="3">
+        <v>75</v>
+      </c>
+      <c r="I272" s="3">
+        <v>116</v>
+      </c>
+      <c r="J272" s="2">
+        <v>5</v>
+      </c>
+      <c r="K272" s="3">
+        <v>18</v>
+      </c>
+      <c r="P272" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2630, name: "エルフーン", hit_point: 60, attack: 67, block: 85, contact: 77, defense: 75, speed: 116, category_1: 5, category_2: 18)</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16">
       <c r="A273">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
+      <c r="B273">
+        <v>2640</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D273" s="3">
+        <v>80</v>
+      </c>
+      <c r="E273" s="3">
+        <v>85</v>
+      </c>
+      <c r="F273" s="3">
+        <v>95</v>
+      </c>
+      <c r="G273" s="3">
+        <v>30</v>
+      </c>
+      <c r="H273" s="3">
+        <v>30</v>
+      </c>
+      <c r="I273" s="3">
+        <v>25</v>
+      </c>
+      <c r="J273" s="2">
+        <v>9</v>
+      </c>
+      <c r="K273" s="3">
+        <v>13</v>
+      </c>
+      <c r="P273" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2640, name: "サイホーン", hit_point: 80, attack: 85, block: 95, contact: 30, defense: 30, speed: 25, category_1: 9, category_2: 13)</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16">
       <c r="A274">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
+      <c r="B274">
+        <v>2650</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D274" s="3">
+        <v>105</v>
+      </c>
+      <c r="E274" s="3">
+        <v>130</v>
+      </c>
+      <c r="F274" s="3">
+        <v>120</v>
+      </c>
+      <c r="G274" s="3">
+        <v>45</v>
+      </c>
+      <c r="H274" s="3">
+        <v>45</v>
+      </c>
+      <c r="I274" s="3">
+        <v>40</v>
+      </c>
+      <c r="J274" s="2">
+        <v>9</v>
+      </c>
+      <c r="K274" s="3">
+        <v>13</v>
+      </c>
+      <c r="P274" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2650, name: "サイドン", hit_point: 105, attack: 130, block: 120, contact: 45, defense: 45, speed: 40, category_1: 9, category_2: 13)</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16">
       <c r="A275">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
+      <c r="B275">
+        <v>2660</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D275" s="3">
+        <v>115</v>
+      </c>
+      <c r="E275" s="3">
+        <v>140</v>
+      </c>
+      <c r="F275" s="3">
+        <v>130</v>
+      </c>
+      <c r="G275" s="3">
+        <v>55</v>
+      </c>
+      <c r="H275" s="3">
+        <v>55</v>
+      </c>
+      <c r="I275" s="3">
+        <v>40</v>
+      </c>
+      <c r="J275" s="2">
+        <v>9</v>
+      </c>
+      <c r="K275" s="3">
+        <v>13</v>
+      </c>
+      <c r="P275" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2660, name: "ドサイドン", hit_point: 115, attack: 140, block: 130, contact: 55, defense: 55, speed: 40, category_1: 9, category_2: 13)</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16">
       <c r="A276">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
+      <c r="B276">
+        <v>2670</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D276" s="3">
+        <v>45</v>
+      </c>
+      <c r="E276" s="3">
+        <v>30</v>
+      </c>
+      <c r="F276" s="3">
+        <v>50</v>
+      </c>
+      <c r="G276" s="3">
+        <v>55</v>
+      </c>
+      <c r="H276" s="3">
+        <v>65</v>
+      </c>
+      <c r="I276" s="3">
+        <v>45</v>
+      </c>
+      <c r="J276" s="2">
+        <v>11</v>
+      </c>
+      <c r="K276" s="3">
+        <v>0</v>
+      </c>
+      <c r="P276" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2670, name: "ゴチム", hit_point: 45, attack: 30, block: 50, contact: 55, defense: 65, speed: 45, category_1: 11, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16">
       <c r="A277">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
+      <c r="B277">
+        <v>2680</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D277" s="3">
+        <v>60</v>
+      </c>
+      <c r="E277" s="3">
+        <v>45</v>
+      </c>
+      <c r="F277" s="3">
+        <v>70</v>
+      </c>
+      <c r="G277" s="3">
+        <v>75</v>
+      </c>
+      <c r="H277" s="3">
+        <v>85</v>
+      </c>
+      <c r="I277" s="3">
+        <v>55</v>
+      </c>
+      <c r="J277" s="2">
+        <v>11</v>
+      </c>
+      <c r="K277" s="3">
+        <v>0</v>
+      </c>
+      <c r="P277" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2680, name: "ゴチミル", hit_point: 60, attack: 45, block: 70, contact: 75, defense: 85, speed: 55, category_1: 11, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16">
       <c r="A278">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
+      <c r="B278">
+        <v>2690</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D278" s="3">
+        <v>70</v>
+      </c>
+      <c r="E278" s="3">
+        <v>55</v>
+      </c>
+      <c r="F278" s="3">
+        <v>95</v>
+      </c>
+      <c r="G278" s="3">
+        <v>95</v>
+      </c>
+      <c r="H278" s="3">
+        <v>110</v>
+      </c>
+      <c r="I278" s="3">
+        <v>65</v>
+      </c>
+      <c r="J278" s="2">
+        <v>11</v>
+      </c>
+      <c r="K278" s="3">
+        <v>0</v>
+      </c>
+      <c r="P278" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2690, name: "ゴチルゼル", hit_point: 70, attack: 55, block: 95, contact: 95, defense: 110, speed: 65, category_1: 11, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16">
       <c r="A279">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
+      <c r="B279">
+        <v>2700</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D279" s="3">
+        <v>45</v>
+      </c>
+      <c r="E279" s="3">
+        <v>30</v>
+      </c>
+      <c r="F279" s="3">
+        <v>40</v>
+      </c>
+      <c r="G279" s="3">
+        <v>105</v>
+      </c>
+      <c r="H279" s="3">
+        <v>50</v>
+      </c>
+      <c r="I279" s="3">
+        <v>20</v>
+      </c>
+      <c r="J279" s="2">
+        <v>11</v>
+      </c>
+      <c r="K279" s="3">
+        <v>0</v>
+      </c>
+      <c r="P279" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2700, name: "ユニラン", hit_point: 45, attack: 30, block: 40, contact: 105, defense: 50, speed: 20, category_1: 11, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16">
       <c r="A280">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
+      <c r="B280">
+        <v>2710</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D280" s="3">
+        <v>65</v>
+      </c>
+      <c r="E280" s="3">
+        <v>40</v>
+      </c>
+      <c r="F280" s="3">
+        <v>50</v>
+      </c>
+      <c r="G280" s="3">
+        <v>125</v>
+      </c>
+      <c r="H280" s="3">
+        <v>60</v>
+      </c>
+      <c r="I280" s="3">
+        <v>30</v>
+      </c>
+      <c r="J280" s="2">
+        <v>11</v>
+      </c>
+      <c r="K280" s="3">
+        <v>0</v>
+      </c>
+      <c r="P280" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2710, name: "ダブラン", hit_point: 65, attack: 40, block: 50, contact: 125, defense: 60, speed: 30, category_1: 11, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16">
       <c r="A281">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
+      <c r="B281">
+        <v>2720</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D281" s="3">
+        <v>110</v>
+      </c>
+      <c r="E281" s="3">
+        <v>65</v>
+      </c>
+      <c r="F281" s="3">
+        <v>75</v>
+      </c>
+      <c r="G281" s="3">
+        <v>125</v>
+      </c>
+      <c r="H281" s="3">
+        <v>85</v>
+      </c>
+      <c r="I281" s="3">
+        <v>30</v>
+      </c>
+      <c r="J281" s="2">
+        <v>11</v>
+      </c>
+      <c r="K281" s="3">
+        <v>0</v>
+      </c>
+      <c r="P281" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2720, name: "ランクルス", hit_point: 110, attack: 65, block: 75, contact: 125, defense: 85, speed: 30, category_1: 11, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16">
       <c r="A282">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
+      <c r="B282">
+        <v>2730</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D282" s="3">
+        <v>50</v>
+      </c>
+      <c r="E282" s="3">
+        <v>75</v>
+      </c>
+      <c r="F282" s="3">
+        <v>45</v>
+      </c>
+      <c r="G282" s="3">
+        <v>40</v>
+      </c>
+      <c r="H282" s="3">
+        <v>45</v>
+      </c>
+      <c r="I282" s="3">
+        <v>60</v>
+      </c>
+      <c r="J282" s="2">
+        <v>12</v>
+      </c>
+      <c r="K282" s="3">
+        <v>0</v>
+      </c>
+      <c r="P282" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2730, name: "カブルモ", hit_point: 50, attack: 75, block: 45, contact: 40, defense: 45, speed: 60, category_1: 12, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16">
       <c r="A283">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
+      <c r="B283">
+        <v>2740</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D283" s="3">
+        <v>70</v>
+      </c>
+      <c r="E283" s="3">
+        <v>135</v>
+      </c>
+      <c r="F283" s="3">
+        <v>105</v>
+      </c>
+      <c r="G283" s="3">
+        <v>60</v>
+      </c>
+      <c r="H283" s="3">
+        <v>105</v>
+      </c>
+      <c r="I283" s="3">
+        <v>20</v>
+      </c>
+      <c r="J283" s="2">
+        <v>12</v>
+      </c>
+      <c r="K283" s="3">
+        <v>17</v>
+      </c>
+      <c r="P283" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2740, name: "シュバルゴ", hit_point: 70, attack: 135, block: 105, contact: 60, defense: 105, speed: 20, category_1: 12, category_2: 17)</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16">
       <c r="A284">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
+      <c r="B284">
+        <v>2750</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D284" s="3">
+        <v>50</v>
+      </c>
+      <c r="E284" s="3">
+        <v>40</v>
+      </c>
+      <c r="F284" s="3">
+        <v>85</v>
+      </c>
+      <c r="G284" s="3">
+        <v>40</v>
+      </c>
+      <c r="H284" s="3">
+        <v>65</v>
+      </c>
+      <c r="I284" s="3">
+        <v>25</v>
+      </c>
+      <c r="J284" s="2">
+        <v>12</v>
+      </c>
+      <c r="K284" s="3">
+        <v>0</v>
+      </c>
+      <c r="P284" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2750, name: "チョボマキ", hit_point: 50, attack: 40, block: 85, contact: 40, defense: 65, speed: 25, category_1: 12, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16">
       <c r="A285">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
+      <c r="B285">
+        <v>2760</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D285" s="3">
+        <v>80</v>
+      </c>
+      <c r="E285" s="3">
+        <v>70</v>
+      </c>
+      <c r="F285" s="3">
+        <v>40</v>
+      </c>
+      <c r="G285" s="3">
+        <v>100</v>
+      </c>
+      <c r="H285" s="3">
+        <v>60</v>
+      </c>
+      <c r="I285" s="3">
+        <v>145</v>
+      </c>
+      <c r="J285" s="2">
+        <v>12</v>
+      </c>
+      <c r="K285" s="3">
+        <v>0</v>
+      </c>
+      <c r="P285" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2760, name: "アギルダー", hit_point: 80, attack: 70, block: 40, contact: 100, defense: 60, speed: 145, category_1: 12, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16">
       <c r="A286">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
+      <c r="B286">
+        <v>2770</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D286" s="3">
+        <v>55</v>
+      </c>
+      <c r="E286" s="3">
+        <v>55</v>
+      </c>
+      <c r="F286" s="3">
+        <v>55</v>
+      </c>
+      <c r="G286" s="3">
+        <v>85</v>
+      </c>
+      <c r="H286" s="3">
+        <v>55</v>
+      </c>
+      <c r="I286" s="3">
+        <v>30</v>
+      </c>
+      <c r="J286" s="2">
+        <v>11</v>
+      </c>
+      <c r="K286" s="3">
+        <v>0</v>
+      </c>
+      <c r="P286" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2770, name: "リグレー", hit_point: 55, attack: 55, block: 55, contact: 85, defense: 55, speed: 30, category_1: 11, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16">
       <c r="A287">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
+      <c r="B287">
+        <v>2780</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D287" s="3">
+        <v>75</v>
+      </c>
+      <c r="E287" s="3">
+        <v>75</v>
+      </c>
+      <c r="F287" s="3">
+        <v>75</v>
+      </c>
+      <c r="G287" s="3">
+        <v>125</v>
+      </c>
+      <c r="H287" s="3">
+        <v>95</v>
+      </c>
+      <c r="I287" s="3">
+        <v>40</v>
+      </c>
+      <c r="J287" s="2">
+        <v>11</v>
+      </c>
+      <c r="K287" s="3">
+        <v>0</v>
+      </c>
+      <c r="P287" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2780, name: "オーベム", hit_point: 75, attack: 75, block: 75, contact: 125, defense: 95, speed: 40, category_1: 11, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16">
       <c r="A288">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
+      <c r="B288">
+        <v>2790</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D288" s="3">
+        <v>55</v>
+      </c>
+      <c r="E288" s="3">
+        <v>70</v>
+      </c>
+      <c r="F288" s="3">
+        <v>40</v>
+      </c>
+      <c r="G288" s="3">
+        <v>60</v>
+      </c>
+      <c r="H288" s="3">
+        <v>40</v>
+      </c>
+      <c r="I288" s="3">
+        <v>40</v>
+      </c>
+      <c r="J288" s="2">
+        <v>6</v>
+      </c>
+      <c r="K288" s="3">
+        <v>0</v>
+      </c>
+      <c r="P288" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2790, name: "クマシュン", hit_point: 55, attack: 70, block: 40, contact: 60, defense: 40, speed: 40, category_1: 6, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16">
       <c r="A289">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
+      <c r="B289">
+        <v>2800</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D289" s="3">
+        <v>95</v>
+      </c>
+      <c r="E289" s="3">
+        <v>130</v>
+      </c>
+      <c r="F289" s="3">
+        <v>80</v>
+      </c>
+      <c r="G289" s="3">
+        <v>70</v>
+      </c>
+      <c r="H289" s="3">
+        <v>80</v>
+      </c>
+      <c r="I289" s="3">
+        <v>50</v>
+      </c>
+      <c r="J289" s="2">
+        <v>6</v>
+      </c>
+      <c r="K289" s="3">
+        <v>0</v>
+      </c>
+      <c r="P289" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2800, name: "ツンベアー", hit_point: 95, attack: 130, block: 80, contact: 70, defense: 80, speed: 50, category_1: 6, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16">
       <c r="A290">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
+      <c r="B290">
+        <v>2810</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D290" s="3">
+        <v>70</v>
+      </c>
+      <c r="E290" s="3">
+        <v>83</v>
+      </c>
+      <c r="F290" s="3">
+        <v>50</v>
+      </c>
+      <c r="G290" s="3">
+        <v>37</v>
+      </c>
+      <c r="H290" s="3">
+        <v>50</v>
+      </c>
+      <c r="I290" s="3">
+        <v>60</v>
+      </c>
+      <c r="J290" s="2">
+        <v>1</v>
+      </c>
+      <c r="K290" s="3">
+        <v>10</v>
+      </c>
+      <c r="P290" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2810, name: "ワシボン", hit_point: 70, attack: 83, block: 50, contact: 37, defense: 50, speed: 60, category_1: 1, category_2: 10)</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16">
       <c r="A291">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
+      <c r="B291">
+        <v>2820</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D291" s="3">
+        <v>100</v>
+      </c>
+      <c r="E291" s="3">
+        <v>123</v>
+      </c>
+      <c r="F291" s="3">
+        <v>75</v>
+      </c>
+      <c r="G291" s="3">
+        <v>57</v>
+      </c>
+      <c r="H291" s="3">
+        <v>75</v>
+      </c>
+      <c r="I291" s="3">
+        <v>80</v>
+      </c>
+      <c r="J291" s="2">
+        <v>1</v>
+      </c>
+      <c r="K291" s="3">
+        <v>10</v>
+      </c>
+      <c r="P291" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2820, name: "ウォーグル", hit_point: 100, attack: 123, block: 75, contact: 57, defense: 75, speed: 80, category_1: 1, category_2: 10)</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16">
       <c r="A292">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
+      <c r="B292">
+        <v>2830</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D292" s="3">
+        <v>70</v>
+      </c>
+      <c r="E292" s="3">
+        <v>55</v>
+      </c>
+      <c r="F292" s="3">
+        <v>75</v>
+      </c>
+      <c r="G292" s="3">
+        <v>45</v>
+      </c>
+      <c r="H292" s="3">
+        <v>65</v>
+      </c>
+      <c r="I292" s="3">
+        <v>60</v>
+      </c>
+      <c r="J292" s="2">
+        <v>16</v>
+      </c>
+      <c r="K292" s="3">
+        <v>10</v>
+      </c>
+      <c r="P292" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2830, name: "バルチャイ", hit_point: 70, attack: 55, block: 75, contact: 45, defense: 65, speed: 60, category_1: 16, category_2: 10)</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16">
       <c r="A293">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
+      <c r="B293">
+        <v>2840</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D293" s="3">
+        <v>110</v>
+      </c>
+      <c r="E293" s="3">
+        <v>65</v>
+      </c>
+      <c r="F293" s="3">
+        <v>105</v>
+      </c>
+      <c r="G293" s="3">
+        <v>55</v>
+      </c>
+      <c r="H293" s="3">
+        <v>95</v>
+      </c>
+      <c r="I293" s="3">
+        <v>80</v>
+      </c>
+      <c r="J293" s="2">
+        <v>16</v>
+      </c>
+      <c r="K293" s="3">
+        <v>10</v>
+      </c>
+      <c r="P293" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2840, name: "バルジーナ", hit_point: 110, attack: 65, block: 105, contact: 55, defense: 95, speed: 80, category_1: 16, category_2: 10)</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16">
       <c r="A294">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
+      <c r="B294">
+        <v>2850</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D294" s="3">
+        <v>40</v>
+      </c>
+      <c r="E294" s="3">
+        <v>50</v>
+      </c>
+      <c r="F294" s="3">
+        <v>90</v>
+      </c>
+      <c r="G294" s="3">
+        <v>30</v>
+      </c>
+      <c r="H294" s="3">
+        <v>55</v>
+      </c>
+      <c r="I294" s="3">
+        <v>65</v>
+      </c>
+      <c r="J294" s="2">
+        <v>8</v>
+      </c>
+      <c r="K294" s="3">
+        <v>12</v>
+      </c>
+      <c r="P294" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2850, name: "スコルピ", hit_point: 40, attack: 50, block: 90, contact: 30, defense: 55, speed: 65, category_1: 8, category_2: 12)</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16">
       <c r="A295">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
+      <c r="B295">
+        <v>2860</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D295" s="3">
+        <v>70</v>
+      </c>
+      <c r="E295" s="3">
+        <v>90</v>
+      </c>
+      <c r="F295" s="3">
+        <v>110</v>
+      </c>
+      <c r="G295" s="3">
+        <v>60</v>
+      </c>
+      <c r="H295" s="3">
+        <v>75</v>
+      </c>
+      <c r="I295" s="3">
+        <v>95</v>
+      </c>
+      <c r="J295" s="2">
+        <v>8</v>
+      </c>
+      <c r="K295" s="3">
+        <v>16</v>
+      </c>
+      <c r="P295" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2860, name: "ドラピオン", hit_point: 70, attack: 90, block: 110, contact: 60, defense: 75, speed: 95, category_1: 8, category_2: 16)</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16">
       <c r="A296">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
+      <c r="B296">
+        <v>2870</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D296" s="3">
+        <v>50</v>
+      </c>
+      <c r="E296" s="3">
+        <v>30</v>
+      </c>
+      <c r="F296" s="3">
+        <v>55</v>
+      </c>
+      <c r="G296" s="3">
+        <v>65</v>
+      </c>
+      <c r="H296" s="3">
+        <v>55</v>
+      </c>
+      <c r="I296" s="3">
+        <v>20</v>
+      </c>
+      <c r="J296" s="2">
+        <v>14</v>
+      </c>
+      <c r="K296" s="3">
+        <v>2</v>
+      </c>
+      <c r="P296" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2870, name: "ヒトモシ", hit_point: 50, attack: 30, block: 55, contact: 65, defense: 55, speed: 20, category_1: 14, category_2: 2)</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16">
       <c r="A297">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
+      <c r="B297">
+        <v>2880</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D297" s="3">
+        <v>60</v>
+      </c>
+      <c r="E297" s="3">
+        <v>40</v>
+      </c>
+      <c r="F297" s="3">
+        <v>60</v>
+      </c>
+      <c r="G297" s="3">
+        <v>95</v>
+      </c>
+      <c r="H297" s="3">
+        <v>60</v>
+      </c>
+      <c r="I297" s="3">
+        <v>55</v>
+      </c>
+      <c r="J297" s="2">
+        <v>14</v>
+      </c>
+      <c r="K297" s="3">
+        <v>2</v>
+      </c>
+      <c r="P297" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2880, name: "ランプラー", hit_point: 60, attack: 40, block: 60, contact: 95, defense: 60, speed: 55, category_1: 14, category_2: 2)</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16">
       <c r="A298">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
+      <c r="B298">
+        <v>2890</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D298" s="3">
+        <v>60</v>
+      </c>
+      <c r="E298" s="3">
+        <v>55</v>
+      </c>
+      <c r="F298" s="3">
+        <v>90</v>
+      </c>
+      <c r="G298" s="3">
+        <v>145</v>
+      </c>
+      <c r="H298" s="3">
+        <v>90</v>
+      </c>
+      <c r="I298" s="3">
+        <v>80</v>
+      </c>
+      <c r="J298" s="2">
+        <v>14</v>
+      </c>
+      <c r="K298" s="3">
+        <v>2</v>
+      </c>
+      <c r="P298" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2890, name: "シャンデラ", hit_point: 60, attack: 55, block: 90, contact: 145, defense: 90, speed: 80, category_1: 14, category_2: 2)</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16">
       <c r="A299">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
+      <c r="B299">
+        <v>2900</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D299" s="3">
+        <v>53</v>
+      </c>
+      <c r="E299" s="3">
+        <v>54</v>
+      </c>
+      <c r="F299" s="3">
+        <v>53</v>
+      </c>
+      <c r="G299" s="3">
+        <v>37</v>
+      </c>
+      <c r="H299" s="3">
+        <v>46</v>
+      </c>
+      <c r="I299" s="3">
+        <v>45</v>
+      </c>
+      <c r="J299" s="2">
+        <v>16</v>
+      </c>
+      <c r="K299" s="3">
+        <v>11</v>
+      </c>
+      <c r="P299" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2900, name: "マーイーカ", hit_point: 53, attack: 54, block: 53, contact: 37, defense: 46, speed: 45, category_1: 16, category_2: 11)</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16">
       <c r="A300">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
+      <c r="B300">
+        <v>2910</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D300" s="3">
+        <v>86</v>
+      </c>
+      <c r="E300" s="3">
+        <v>92</v>
+      </c>
+      <c r="F300" s="3">
+        <v>88</v>
+      </c>
+      <c r="G300" s="3">
+        <v>68</v>
+      </c>
+      <c r="H300" s="3">
+        <v>75</v>
+      </c>
+      <c r="I300" s="3">
+        <v>73</v>
+      </c>
+      <c r="J300" s="2">
+        <v>16</v>
+      </c>
+      <c r="K300" s="3">
+        <v>11</v>
+      </c>
+      <c r="P300" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2910, name: "カラマネロ", hit_point: 86, attack: 92, block: 88, contact: 68, defense: 75, speed: 73, category_1: 16, category_2: 11)</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16">
       <c r="A301">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:1">
+      <c r="B301">
+        <v>2920</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D301" s="3">
+        <v>55</v>
+      </c>
+      <c r="E301" s="3">
+        <v>95</v>
+      </c>
+      <c r="F301" s="3">
+        <v>55</v>
+      </c>
+      <c r="G301" s="3">
+        <v>35</v>
+      </c>
+      <c r="H301" s="3">
+        <v>75</v>
+      </c>
+      <c r="I301" s="3">
+        <v>115</v>
+      </c>
+      <c r="J301" s="2">
+        <v>16</v>
+      </c>
+      <c r="K301" s="3">
+        <v>6</v>
+      </c>
+      <c r="P301" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2920, name: "ニューラ", hit_point: 55, attack: 95, block: 55, contact: 35, defense: 75, speed: 115, category_1: 16, category_2: 6)</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16">
       <c r="A302">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:1">
+      <c r="B302">
+        <v>2930</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D302" s="3">
+        <v>70</v>
+      </c>
+      <c r="E302" s="3">
+        <v>120</v>
+      </c>
+      <c r="F302" s="3">
+        <v>65</v>
+      </c>
+      <c r="G302" s="3">
+        <v>45</v>
+      </c>
+      <c r="H302" s="3">
+        <v>85</v>
+      </c>
+      <c r="I302" s="3">
+        <v>125</v>
+      </c>
+      <c r="J302" s="2">
+        <v>16</v>
+      </c>
+      <c r="K302" s="3">
+        <v>6</v>
+      </c>
+      <c r="P302" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2930, name: "マニューラ", hit_point: 70, attack: 120, block: 65, contact: 45, defense: 85, speed: 125, category_1: 16, category_2: 6)</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16">
       <c r="A303">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:1">
+      <c r="B303">
+        <v>2940</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D303" s="3">
+        <v>50</v>
+      </c>
+      <c r="E303" s="3">
+        <v>75</v>
+      </c>
+      <c r="F303" s="3">
+        <v>75</v>
+      </c>
+      <c r="G303" s="3">
+        <v>65</v>
+      </c>
+      <c r="H303" s="3">
+        <v>65</v>
+      </c>
+      <c r="I303" s="3">
+        <v>50</v>
+      </c>
+      <c r="J303" s="2">
+        <v>16</v>
+      </c>
+      <c r="K303" s="3">
+        <v>14</v>
+      </c>
+      <c r="P303" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2940, name: "ヤミラミ", hit_point: 50, attack: 75, block: 75, contact: 65, defense: 65, speed: 50, category_1: 16, category_2: 14)</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16">
       <c r="A304">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:1">
+      <c r="B304">
+        <v>2950</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D304" s="3">
+        <v>50</v>
+      </c>
+      <c r="E304" s="3">
+        <v>85</v>
+      </c>
+      <c r="F304" s="3">
+        <v>85</v>
+      </c>
+      <c r="G304" s="3">
+        <v>55</v>
+      </c>
+      <c r="H304" s="3">
+        <v>55</v>
+      </c>
+      <c r="I304" s="3">
+        <v>50</v>
+      </c>
+      <c r="J304" s="2">
+        <v>17</v>
+      </c>
+      <c r="K304" s="3">
+        <v>18</v>
+      </c>
+      <c r="P304" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2950, name: "クチート", hit_point: 50, attack: 85, block: 85, contact: 55, defense: 55, speed: 50, category_1: 17, category_2: 18)</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16">
       <c r="A305">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:1">
+      <c r="B305">
+        <v>2960</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D305" s="3">
+        <v>75</v>
+      </c>
+      <c r="E305" s="3">
+        <v>86</v>
+      </c>
+      <c r="F305" s="3">
+        <v>67</v>
+      </c>
+      <c r="G305" s="3">
+        <v>106</v>
+      </c>
+      <c r="H305" s="3">
+        <v>67</v>
+      </c>
+      <c r="I305" s="3">
+        <v>60</v>
+      </c>
+      <c r="J305" s="2">
+        <v>5</v>
+      </c>
+      <c r="K305" s="3">
+        <v>0</v>
+      </c>
+      <c r="P305" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2960, name: "マラカッチ", hit_point: 75, attack: 86, block: 67, contact: 106, defense: 67, speed: 60, category_1: 5, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16">
       <c r="A306">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:1">
+      <c r="B306">
+        <v>2970</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D306" s="3">
+        <v>72</v>
+      </c>
+      <c r="E306" s="3">
+        <v>58</v>
+      </c>
+      <c r="F306" s="3">
+        <v>80</v>
+      </c>
+      <c r="G306" s="3">
+        <v>103</v>
+      </c>
+      <c r="H306" s="3">
+        <v>80</v>
+      </c>
+      <c r="I306" s="3">
+        <v>97</v>
+      </c>
+      <c r="J306" s="2">
+        <v>11</v>
+      </c>
+      <c r="K306" s="3">
+        <v>10</v>
+      </c>
+      <c r="P306" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2970, name: "シンボラー", hit_point: 72, attack: 58, block: 80, contact: 103, defense: 80, speed: 97, category_1: 11, category_2: 10)</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16">
       <c r="A307">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:1">
+      <c r="B307">
+        <v>2980</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D307" s="3">
+        <v>40</v>
+      </c>
+      <c r="E307" s="3">
+        <v>70</v>
+      </c>
+      <c r="F307" s="3">
+        <v>40</v>
+      </c>
+      <c r="G307" s="3">
+        <v>35</v>
+      </c>
+      <c r="H307" s="3">
+        <v>40</v>
+      </c>
+      <c r="I307" s="3">
+        <v>60</v>
+      </c>
+      <c r="J307" s="2">
+        <v>7</v>
+      </c>
+      <c r="K307" s="3">
+        <v>0</v>
+      </c>
+      <c r="P307" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2980, name: "リオル", hit_point: 40, attack: 70, block: 40, contact: 35, defense: 40, speed: 60, category_1: 7, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16">
       <c r="A308">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:1">
+      <c r="B308">
+        <v>2990</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D308" s="3">
+        <v>70</v>
+      </c>
+      <c r="E308" s="3">
+        <v>110</v>
+      </c>
+      <c r="F308" s="3">
+        <v>70</v>
+      </c>
+      <c r="G308" s="3">
+        <v>115</v>
+      </c>
+      <c r="H308" s="3">
+        <v>70</v>
+      </c>
+      <c r="I308" s="3">
+        <v>90</v>
+      </c>
+      <c r="J308" s="2">
+        <v>7</v>
+      </c>
+      <c r="K308" s="3">
+        <v>17</v>
+      </c>
+      <c r="P308" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 2990, name: "ルカリオ", hit_point: 70, attack: 110, block: 70, contact: 115, defense: 70, speed: 90, category_1: 7, category_2: 17)</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16">
       <c r="A309">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:1">
+      <c r="B309">
+        <v>3000</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D309" s="3">
+        <v>70</v>
+      </c>
+      <c r="E309" s="3">
+        <v>85</v>
+      </c>
+      <c r="F309" s="3">
+        <v>140</v>
+      </c>
+      <c r="G309" s="3">
+        <v>85</v>
+      </c>
+      <c r="H309" s="3">
+        <v>70</v>
+      </c>
+      <c r="I309" s="3">
+        <v>20</v>
+      </c>
+      <c r="J309" s="2">
+        <v>2</v>
+      </c>
+      <c r="K309" s="3">
+        <v>0</v>
+      </c>
+      <c r="P309" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3000, name: "コータス", hit_point: 70, attack: 85, block: 140, contact: 85, defense: 70, speed: 20, category_1: 2, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16">
       <c r="A310">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:1">
+      <c r="B310">
+        <v>3010</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D310" s="3">
+        <v>55</v>
+      </c>
+      <c r="E310" s="3">
+        <v>90</v>
+      </c>
+      <c r="F310" s="3">
+        <v>80</v>
+      </c>
+      <c r="G310" s="3">
+        <v>50</v>
+      </c>
+      <c r="H310" s="3">
+        <v>105</v>
+      </c>
+      <c r="I310" s="3">
+        <v>96</v>
+      </c>
+      <c r="J310" s="2">
+        <v>14</v>
+      </c>
+      <c r="K310" s="3">
+        <v>18</v>
+      </c>
+      <c r="P310" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3010, name: "ミミッキュ", hit_point: 55, attack: 90, block: 80, contact: 50, defense: 105, speed: 96, category_1: 14, category_2: 18)</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16">
       <c r="A311">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:1">
+      <c r="B311">
+        <v>3020</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D311" s="3">
+        <v>72</v>
+      </c>
+      <c r="E311" s="3">
+        <v>80</v>
+      </c>
+      <c r="F311" s="3">
+        <v>49</v>
+      </c>
+      <c r="G311" s="3">
+        <v>40</v>
+      </c>
+      <c r="H311" s="3">
+        <v>49</v>
+      </c>
+      <c r="I311" s="3">
+        <v>40</v>
+      </c>
+      <c r="J311" s="2">
+        <v>17</v>
+      </c>
+      <c r="K311" s="3">
+        <v>0</v>
+      </c>
+      <c r="P311" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3020, name: "ゾウドウ", hit_point: 72, attack: 80, block: 49, contact: 40, defense: 49, speed: 40, category_1: 17, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16">
       <c r="A312">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:1">
+      <c r="B312">
+        <v>3030</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D312" s="3">
+        <v>122</v>
+      </c>
+      <c r="E312" s="3">
+        <v>130</v>
+      </c>
+      <c r="F312" s="3">
+        <v>69</v>
+      </c>
+      <c r="G312" s="3">
+        <v>80</v>
+      </c>
+      <c r="H312" s="3">
+        <v>69</v>
+      </c>
+      <c r="I312" s="3">
+        <v>30</v>
+      </c>
+      <c r="J312" s="2">
+        <v>17</v>
+      </c>
+      <c r="K312" s="3">
+        <v>0</v>
+      </c>
+      <c r="P312" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3030, name: "ダイオウドウ", hit_point: 122, attack: 130, block: 69, contact: 80, defense: 69, speed: 30, category_1: 17, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16">
       <c r="A313">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:1">
+      <c r="B313">
+        <v>3040</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D313" s="3">
+        <v>65</v>
+      </c>
+      <c r="E313" s="3">
+        <v>95</v>
+      </c>
+      <c r="F313" s="3">
+        <v>85</v>
+      </c>
+      <c r="G313" s="3">
+        <v>55</v>
+      </c>
+      <c r="H313" s="3">
+        <v>55</v>
+      </c>
+      <c r="I313" s="3">
+        <v>85</v>
+      </c>
+      <c r="J313" s="2">
+        <v>3</v>
+      </c>
+      <c r="K313" s="3">
+        <v>8</v>
+      </c>
+      <c r="P313" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3040, name: "ハリーセン", hit_point: 65, attack: 95, block: 85, contact: 55, defense: 55, speed: 85, category_1: 3, category_2: 8)</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16">
       <c r="A314">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:1">
+      <c r="B314">
+        <v>3050</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D314" s="3">
+        <v>55</v>
+      </c>
+      <c r="E314" s="3">
+        <v>40</v>
+      </c>
+      <c r="F314" s="3">
+        <v>50</v>
+      </c>
+      <c r="G314" s="3">
+        <v>65</v>
+      </c>
+      <c r="H314" s="3">
+        <v>85</v>
+      </c>
+      <c r="I314" s="3">
+        <v>40</v>
+      </c>
+      <c r="J314" s="2">
+        <v>3</v>
+      </c>
+      <c r="K314" s="3">
+        <v>14</v>
+      </c>
+      <c r="P314" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3050, name: "プルリル", hit_point: 55, attack: 40, block: 50, contact: 65, defense: 85, speed: 40, category_1: 3, category_2: 14)</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16">
       <c r="A315">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:1">
+      <c r="B315">
+        <v>3060</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D315" s="3">
+        <v>100</v>
+      </c>
+      <c r="E315" s="3">
+        <v>60</v>
+      </c>
+      <c r="F315" s="3">
+        <v>70</v>
+      </c>
+      <c r="G315" s="3">
+        <v>85</v>
+      </c>
+      <c r="H315" s="3">
+        <v>105</v>
+      </c>
+      <c r="I315" s="3">
+        <v>60</v>
+      </c>
+      <c r="J315" s="2">
+        <v>3</v>
+      </c>
+      <c r="K315" s="3">
+        <v>14</v>
+      </c>
+      <c r="P315" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3060, name: "ブルンゲル", hit_point: 100, attack: 60, block: 70, contact: 85, defense: 105, speed: 60, category_1: 3, category_2: 14)</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16">
       <c r="A316">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:1">
+      <c r="B316">
+        <v>3070</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D316" s="3">
+        <v>50</v>
+      </c>
+      <c r="E316" s="3">
+        <v>53</v>
+      </c>
+      <c r="F316" s="3">
+        <v>62</v>
+      </c>
+      <c r="G316" s="3">
+        <v>43</v>
+      </c>
+      <c r="H316" s="3">
+        <v>52</v>
+      </c>
+      <c r="I316" s="3">
+        <v>45</v>
+      </c>
+      <c r="J316" s="2">
+        <v>8</v>
+      </c>
+      <c r="K316" s="3">
+        <v>3</v>
+      </c>
+      <c r="P316" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3070, name: "ヒドイデ", hit_point: 50, attack: 53, block: 62, contact: 43, defense: 52, speed: 45, category_1: 8, category_2: 3)</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16">
       <c r="A317">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:1">
+      <c r="B317">
+        <v>3080</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D317" s="3">
+        <v>50</v>
+      </c>
+      <c r="E317" s="3">
+        <v>63</v>
+      </c>
+      <c r="F317" s="3">
+        <v>152</v>
+      </c>
+      <c r="G317" s="3">
+        <v>53</v>
+      </c>
+      <c r="H317" s="3">
+        <v>142</v>
+      </c>
+      <c r="I317" s="3">
+        <v>35</v>
+      </c>
+      <c r="J317" s="2">
+        <v>8</v>
+      </c>
+      <c r="K317" s="3">
+        <v>3</v>
+      </c>
+      <c r="P317" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3080, name: "ドヒドイデ", hit_point: 50, attack: 63, block: 152, contact: 53, defense: 142, speed: 35, category_1: 8, category_2: 3)</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16">
       <c r="A318">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:1">
+      <c r="B318">
+        <v>3090</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D318" s="3">
+        <v>70</v>
+      </c>
+      <c r="E318" s="3">
+        <v>85</v>
+      </c>
+      <c r="F318" s="3">
+        <v>55</v>
+      </c>
+      <c r="G318" s="3">
+        <v>85</v>
+      </c>
+      <c r="H318" s="3">
+        <v>95</v>
+      </c>
+      <c r="I318" s="3">
+        <v>85</v>
+      </c>
+      <c r="J318" s="2">
+        <v>10</v>
+      </c>
+      <c r="K318" s="3">
+        <v>3</v>
+      </c>
+      <c r="P318" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3090, name: "ウッウ", hit_point: 70, attack: 85, block: 55, contact: 85, defense: 95, speed: 85, category_1: 10, category_2: 3)</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16">
       <c r="A319">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:1">
+      <c r="B319">
+        <v>3100</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D319" s="3">
+        <v>40</v>
+      </c>
+      <c r="E319" s="3">
+        <v>38</v>
+      </c>
+      <c r="F319" s="3">
+        <v>35</v>
+      </c>
+      <c r="G319" s="3">
+        <v>54</v>
+      </c>
+      <c r="H319" s="3">
+        <v>35</v>
+      </c>
+      <c r="I319" s="3">
+        <v>40</v>
+      </c>
+      <c r="J319" s="2">
+        <v>4</v>
+      </c>
+      <c r="K319" s="3">
+        <v>8</v>
+      </c>
+      <c r="P319" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3100, name: "エレズン", hit_point: 40, attack: 38, block: 35, contact: 54, defense: 35, speed: 40, category_1: 4, category_2: 8)</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16">
       <c r="A320">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1">
+      <c r="B320">
+        <v>3110</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D320" s="3">
+        <v>75</v>
+      </c>
+      <c r="E320" s="3">
+        <v>98</v>
+      </c>
+      <c r="F320" s="3">
+        <v>70</v>
+      </c>
+      <c r="G320" s="3">
+        <v>114</v>
+      </c>
+      <c r="H320" s="3">
+        <v>70</v>
+      </c>
+      <c r="I320" s="3">
+        <v>75</v>
+      </c>
+      <c r="J320" s="2">
+        <v>4</v>
+      </c>
+      <c r="K320" s="3">
+        <v>8</v>
+      </c>
+      <c r="P320" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3110, name: "ストリンダー", hit_point: 75, attack: 98, block: 70, contact: 114, defense: 70, speed: 75, category_1: 4, category_2: 8)</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16">
       <c r="A321">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1">
+      <c r="B321">
+        <v>3120</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D321" s="3">
+        <v>52</v>
+      </c>
+      <c r="E321" s="3">
+        <v>57</v>
+      </c>
+      <c r="F321" s="3">
+        <v>75</v>
+      </c>
+      <c r="G321" s="3">
+        <v>35</v>
+      </c>
+      <c r="H321" s="3">
+        <v>50</v>
+      </c>
+      <c r="I321" s="3">
+        <v>46</v>
+      </c>
+      <c r="J321" s="2">
+        <v>9</v>
+      </c>
+      <c r="K321" s="3">
+        <v>0</v>
+      </c>
+      <c r="P321" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3120, name: "スナヘビ", hit_point: 52, attack: 57, block: 75, contact: 35, defense: 50, speed: 46, category_1: 9, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16">
       <c r="A322">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1">
+      <c r="B322">
+        <v>3130</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D322" s="3">
+        <v>72</v>
+      </c>
+      <c r="E322" s="3">
+        <v>107</v>
+      </c>
+      <c r="F322" s="3">
+        <v>125</v>
+      </c>
+      <c r="G322" s="3">
+        <v>65</v>
+      </c>
+      <c r="H322" s="3">
+        <v>70</v>
+      </c>
+      <c r="I322" s="3">
+        <v>71</v>
+      </c>
+      <c r="J322" s="2">
+        <v>9</v>
+      </c>
+      <c r="K322" s="3">
+        <v>0</v>
+      </c>
+      <c r="P322" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3130, name: "サダイジャ", hit_point: 72, attack: 107, block: 125, contact: 65, defense: 70, speed: 71, category_1: 9, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16">
       <c r="A323">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1">
+      <c r="B323">
+        <v>3140</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D323" s="3">
+        <v>68</v>
+      </c>
+      <c r="E323" s="3">
+        <v>72</v>
+      </c>
+      <c r="F323" s="3">
+        <v>78</v>
+      </c>
+      <c r="G323" s="3">
+        <v>38</v>
+      </c>
+      <c r="H323" s="3">
+        <v>42</v>
+      </c>
+      <c r="I323" s="3">
+        <v>32</v>
+      </c>
+      <c r="J323" s="2">
+        <v>9</v>
+      </c>
+      <c r="K323" s="3">
+        <v>0</v>
+      </c>
+      <c r="P323" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3140, name: "ヒポポタス", hit_point: 68, attack: 72, block: 78, contact: 38, defense: 42, speed: 32, category_1: 9, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16">
       <c r="A324">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1">
+      <c r="B324">
+        <v>3150</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D324" s="3">
+        <v>108</v>
+      </c>
+      <c r="E324" s="3">
+        <v>112</v>
+      </c>
+      <c r="F324" s="3">
+        <v>118</v>
+      </c>
+      <c r="G324" s="3">
+        <v>68</v>
+      </c>
+      <c r="H324" s="3">
+        <v>72</v>
+      </c>
+      <c r="I324" s="3">
+        <v>47</v>
+      </c>
+      <c r="J324" s="2">
+        <v>9</v>
+      </c>
+      <c r="K324" s="3">
+        <v>0</v>
+      </c>
+      <c r="P324" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3150, name: "カバルドン", hit_point: 108, attack: 112, block: 118, contact: 68, defense: 72, speed: 47, category_1: 9, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16">
       <c r="A325">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1">
+      <c r="B325">
+        <v>3160</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D325" s="3">
+        <v>58</v>
+      </c>
+      <c r="E325" s="3">
+        <v>109</v>
+      </c>
+      <c r="F325" s="3">
+        <v>112</v>
+      </c>
+      <c r="G325" s="3">
+        <v>48</v>
+      </c>
+      <c r="H325" s="3">
+        <v>48</v>
+      </c>
+      <c r="I325" s="3">
+        <v>109</v>
+      </c>
+      <c r="J325" s="2">
+        <v>12</v>
+      </c>
+      <c r="K325" s="3">
+        <v>17</v>
+      </c>
+      <c r="P325" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3160, name: "アイアント", hit_point: 58, attack: 109, block: 112, contact: 48, defense: 48, speed: 109, category_1: 12, category_2: 17)</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16">
       <c r="A326">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1">
+      <c r="B326">
+        <v>3170</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D326" s="3">
+        <v>85</v>
+      </c>
+      <c r="E326" s="3">
+        <v>97</v>
+      </c>
+      <c r="F326" s="3">
+        <v>66</v>
+      </c>
+      <c r="G326" s="3">
+        <v>105</v>
+      </c>
+      <c r="H326" s="3">
+        <v>66</v>
+      </c>
+      <c r="I326" s="3">
+        <v>65</v>
+      </c>
+      <c r="J326" s="2">
+        <v>2</v>
+      </c>
+      <c r="K326" s="3">
+        <v>0</v>
+      </c>
+      <c r="P326" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3170, name: "クイタラン", hit_point: 85, attack: 97, block: 66, contact: 105, defense: 66, speed: 65, category_1: 2, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16">
       <c r="A327">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1">
+      <c r="B327">
+        <v>3180</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D327" s="3">
+        <v>44</v>
+      </c>
+      <c r="E327" s="3">
+        <v>38</v>
+      </c>
+      <c r="F327" s="3">
+        <v>33</v>
+      </c>
+      <c r="G327" s="3">
+        <v>61</v>
+      </c>
+      <c r="H327" s="3">
+        <v>43</v>
+      </c>
+      <c r="I327" s="3">
+        <v>70</v>
+      </c>
+      <c r="J327" s="2">
+        <v>4</v>
+      </c>
+      <c r="K327" s="3">
+        <v>1</v>
+      </c>
+      <c r="P327" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3180, name: "エリキテル", hit_point: 44, attack: 38, block: 33, contact: 61, defense: 43, speed: 70, category_1: 4, category_2: 1)</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16">
       <c r="A328">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1">
+      <c r="B328">
+        <v>3190</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D328" s="3">
+        <v>62</v>
+      </c>
+      <c r="E328" s="3">
+        <v>55</v>
+      </c>
+      <c r="F328" s="3">
+        <v>52</v>
+      </c>
+      <c r="G328" s="3">
+        <v>109</v>
+      </c>
+      <c r="H328" s="3">
+        <v>94</v>
+      </c>
+      <c r="I328" s="3">
+        <v>109</v>
+      </c>
+      <c r="J328" s="2">
+        <v>4</v>
+      </c>
+      <c r="K328" s="3">
+        <v>1</v>
+      </c>
+      <c r="P328" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3190, name: "エレザード", hit_point: 62, attack: 55, block: 52, contact: 109, defense: 94, speed: 109, category_1: 4, category_2: 1)</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16">
       <c r="A329">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1">
+      <c r="B329">
+        <v>3200</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D329" s="3">
+        <v>78</v>
+      </c>
+      <c r="E329" s="3">
+        <v>92</v>
+      </c>
+      <c r="F329" s="3">
+        <v>75</v>
+      </c>
+      <c r="G329" s="3">
+        <v>74</v>
+      </c>
+      <c r="H329" s="3">
+        <v>63</v>
+      </c>
+      <c r="I329" s="3">
+        <v>118</v>
+      </c>
+      <c r="J329" s="2">
+        <v>7</v>
+      </c>
+      <c r="K329" s="3">
+        <v>10</v>
+      </c>
+      <c r="P329" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3200, name: "ルチャブル", hit_point: 78, attack: 92, block: 75, contact: 74, defense: 63, speed: 118, category_1: 7, category_2: 10)</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16">
       <c r="A330">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1">
+      <c r="B330">
+        <v>3210</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D330" s="3">
+        <v>45</v>
+      </c>
+      <c r="E330" s="3">
+        <v>100</v>
+      </c>
+      <c r="F330" s="3">
+        <v>45</v>
+      </c>
+      <c r="G330" s="3">
+        <v>45</v>
+      </c>
+      <c r="H330" s="3">
+        <v>45</v>
+      </c>
+      <c r="I330" s="3">
+        <v>10</v>
+      </c>
+      <c r="J330" s="2">
+        <v>9</v>
+      </c>
+      <c r="K330" s="3">
+        <v>0</v>
+      </c>
+      <c r="P330" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3210, name: "ナックラー", hit_point: 45, attack: 100, block: 45, contact: 45, defense: 45, speed: 10, category_1: 9, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16">
       <c r="A331">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1">
+      <c r="B331">
+        <v>3220</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D331" s="3">
+        <v>50</v>
+      </c>
+      <c r="E331" s="3">
+        <v>70</v>
+      </c>
+      <c r="F331" s="3">
+        <v>50</v>
+      </c>
+      <c r="G331" s="3">
+        <v>50</v>
+      </c>
+      <c r="H331" s="3">
+        <v>50</v>
+      </c>
+      <c r="I331" s="3">
+        <v>70</v>
+      </c>
+      <c r="J331" s="2">
+        <v>9</v>
+      </c>
+      <c r="K331" s="3">
+        <v>15</v>
+      </c>
+      <c r="P331" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3220, name: "ビブラーバ", hit_point: 50, attack: 70, block: 50, contact: 50, defense: 50, speed: 70, category_1: 9, category_2: 15)</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16">
       <c r="A332">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1">
+      <c r="B332">
+        <v>3230</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D332" s="3">
+        <v>80</v>
+      </c>
+      <c r="E332" s="3">
+        <v>100</v>
+      </c>
+      <c r="F332" s="3">
+        <v>80</v>
+      </c>
+      <c r="G332" s="3">
+        <v>80</v>
+      </c>
+      <c r="H332" s="3">
+        <v>80</v>
+      </c>
+      <c r="I332" s="3">
+        <v>100</v>
+      </c>
+      <c r="J332" s="2">
+        <v>9</v>
+      </c>
+      <c r="K332" s="3">
+        <v>15</v>
+      </c>
+      <c r="P332" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3230, name: "フライゴン", hit_point: 80, attack: 100, block: 80, contact: 80, defense: 80, speed: 100, category_1: 9, category_2: 15)</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16">
       <c r="A333">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1">
+      <c r="B333">
+        <v>3240</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D333" s="3">
+        <v>46</v>
+      </c>
+      <c r="E333" s="3">
+        <v>87</v>
+      </c>
+      <c r="F333" s="3">
+        <v>60</v>
+      </c>
+      <c r="G333" s="3">
+        <v>30</v>
+      </c>
+      <c r="H333" s="3">
+        <v>40</v>
+      </c>
+      <c r="I333" s="3">
+        <v>57</v>
+      </c>
+      <c r="J333" s="2">
+        <v>15</v>
+      </c>
+      <c r="K333" s="3">
+        <v>0</v>
+      </c>
+      <c r="P333" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3240, name: "キバゴ", hit_point: 46, attack: 87, block: 60, contact: 30, defense: 40, speed: 57, category_1: 15, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16">
       <c r="A334">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1">
+      <c r="B334">
+        <v>3250</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D334" s="3">
+        <v>66</v>
+      </c>
+      <c r="E334" s="3">
+        <v>117</v>
+      </c>
+      <c r="F334" s="3">
+        <v>70</v>
+      </c>
+      <c r="G334" s="3">
+        <v>40</v>
+      </c>
+      <c r="H334" s="3">
+        <v>50</v>
+      </c>
+      <c r="I334" s="3">
+        <v>67</v>
+      </c>
+      <c r="J334" s="2">
+        <v>15</v>
+      </c>
+      <c r="K334" s="3">
+        <v>0</v>
+      </c>
+      <c r="P334" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3250, name: "オノンド", hit_point: 66, attack: 117, block: 70, contact: 40, defense: 50, speed: 67, category_1: 15, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16">
       <c r="A335">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1">
+      <c r="B335">
+        <v>3260</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D335" s="3">
+        <v>76</v>
+      </c>
+      <c r="E335" s="3">
+        <v>147</v>
+      </c>
+      <c r="F335" s="3">
+        <v>90</v>
+      </c>
+      <c r="G335" s="3">
+        <v>60</v>
+      </c>
+      <c r="H335" s="3">
+        <v>70</v>
+      </c>
+      <c r="I335" s="3">
+        <v>97</v>
+      </c>
+      <c r="J335" s="2">
+        <v>15</v>
+      </c>
+      <c r="K335" s="3">
+        <v>0</v>
+      </c>
+      <c r="P335" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3260, name: "オノノクス", hit_point: 76, attack: 147, block: 90, contact: 60, defense: 70, speed: 97, category_1: 15, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16">
       <c r="A336">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1">
+      <c r="B336">
+        <v>3270</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D336" s="3">
+        <v>38</v>
+      </c>
+      <c r="E336" s="3">
+        <v>30</v>
+      </c>
+      <c r="F336" s="3">
+        <v>85</v>
+      </c>
+      <c r="G336" s="3">
+        <v>55</v>
+      </c>
+      <c r="H336" s="3">
+        <v>65</v>
+      </c>
+      <c r="I336" s="3">
+        <v>30</v>
+      </c>
+      <c r="J336" s="2">
+        <v>14</v>
+      </c>
+      <c r="K336" s="3">
+        <v>0</v>
+      </c>
+      <c r="P336" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3270, name: "デスマス", hit_point: 38, attack: 30, block: 85, contact: 55, defense: 65, speed: 30, category_1: 14, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16">
       <c r="A337">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1">
+      <c r="B337">
+        <v>3271</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D337" s="3">
+        <v>38</v>
+      </c>
+      <c r="E337" s="3">
+        <v>55</v>
+      </c>
+      <c r="F337" s="3">
+        <v>85</v>
+      </c>
+      <c r="G337" s="3">
+        <v>30</v>
+      </c>
+      <c r="H337" s="3">
+        <v>65</v>
+      </c>
+      <c r="I337" s="3">
+        <v>30</v>
+      </c>
+      <c r="J337" s="2">
+        <v>9</v>
+      </c>
+      <c r="K337" s="3">
+        <v>14</v>
+      </c>
+      <c r="P337" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3271, name: "デスマス(ガラル)", hit_point: 38, attack: 55, block: 85, contact: 30, defense: 65, speed: 30, category_1: 9, category_2: 14)</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16">
       <c r="A338">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1">
+      <c r="B338">
+        <v>3280</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D338" s="3">
+        <v>58</v>
+      </c>
+      <c r="E338" s="3">
+        <v>95</v>
+      </c>
+      <c r="F338" s="3">
+        <v>145</v>
+      </c>
+      <c r="G338" s="3">
+        <v>50</v>
+      </c>
+      <c r="H338" s="3">
+        <v>105</v>
+      </c>
+      <c r="I338" s="3">
+        <v>30</v>
+      </c>
+      <c r="J338" s="2">
+        <v>9</v>
+      </c>
+      <c r="K338" s="3">
+        <v>14</v>
+      </c>
+      <c r="P338" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3280, name: "デスバーン", hit_point: 58, attack: 95, block: 145, contact: 50, defense: 105, speed: 30, category_1: 9, category_2: 14)</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16">
       <c r="A339">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1">
+      <c r="B339">
+        <v>3290</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D339" s="3">
+        <v>58</v>
+      </c>
+      <c r="E339" s="3">
+        <v>50</v>
+      </c>
+      <c r="F339" s="3">
+        <v>145</v>
+      </c>
+      <c r="G339" s="3">
+        <v>95</v>
+      </c>
+      <c r="H339" s="3">
+        <v>105</v>
+      </c>
+      <c r="I339" s="3">
+        <v>30</v>
+      </c>
+      <c r="J339" s="2">
+        <v>14</v>
+      </c>
+      <c r="K339" s="3">
+        <v>0</v>
+      </c>
+      <c r="P339" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3290, name: "デスカーン", hit_point: 58, attack: 50, block: 145, contact: 95, defense: 105, speed: 30, category_1: 14, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16">
       <c r="A340">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1">
+      <c r="B340">
+        <v>3300</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D340" s="3">
+        <v>45</v>
+      </c>
+      <c r="E340" s="3">
+        <v>80</v>
+      </c>
+      <c r="F340" s="3">
+        <v>100</v>
+      </c>
+      <c r="G340" s="3">
+        <v>35</v>
+      </c>
+      <c r="H340" s="3">
+        <v>37</v>
+      </c>
+      <c r="I340" s="3">
+        <v>28</v>
+      </c>
+      <c r="J340" s="2">
+        <v>17</v>
+      </c>
+      <c r="K340" s="3">
+        <v>14</v>
+      </c>
+      <c r="P340" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3300, name: "ヒトツキ", hit_point: 45, attack: 80, block: 100, contact: 35, defense: 37, speed: 28, category_1: 17, category_2: 14)</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16">
       <c r="A341">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1">
+      <c r="B341">
+        <v>3310</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D341" s="3">
+        <v>59</v>
+      </c>
+      <c r="E341" s="3">
+        <v>110</v>
+      </c>
+      <c r="F341" s="3">
+        <v>150</v>
+      </c>
+      <c r="G341" s="3">
+        <v>45</v>
+      </c>
+      <c r="H341" s="3">
+        <v>49</v>
+      </c>
+      <c r="I341" s="3">
+        <v>35</v>
+      </c>
+      <c r="J341" s="2">
+        <v>17</v>
+      </c>
+      <c r="K341" s="3">
+        <v>14</v>
+      </c>
+      <c r="P341" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3310, name: "ニダンギル", hit_point: 59, attack: 110, block: 150, contact: 45, defense: 49, speed: 35, category_1: 17, category_2: 14)</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16">
       <c r="A342">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1">
+      <c r="B342">
+        <v>3320</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D342" s="3">
+        <v>60</v>
+      </c>
+      <c r="E342" s="3">
+        <v>50</v>
+      </c>
+      <c r="F342" s="3">
+        <v>140</v>
+      </c>
+      <c r="G342" s="3">
+        <v>50</v>
+      </c>
+      <c r="H342" s="3">
+        <v>140</v>
+      </c>
+      <c r="I342" s="3">
+        <v>60</v>
+      </c>
+      <c r="J342" s="2">
+        <v>17</v>
+      </c>
+      <c r="K342" s="3">
+        <v>14</v>
+      </c>
+      <c r="P342" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3320, name: "ギルガルド(シールド)", hit_point: 60, attack: 50, block: 140, contact: 50, defense: 140, speed: 60, category_1: 17, category_2: 14)</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16">
       <c r="A343">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1">
+      <c r="B343">
+        <v>3321</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D343" s="3">
+        <v>60</v>
+      </c>
+      <c r="E343" s="3">
+        <v>140</v>
+      </c>
+      <c r="F343" s="3">
+        <v>50</v>
+      </c>
+      <c r="G343" s="3">
+        <v>140</v>
+      </c>
+      <c r="H343" s="3">
+        <v>50</v>
+      </c>
+      <c r="I343" s="3">
+        <v>60</v>
+      </c>
+      <c r="J343" s="2">
+        <v>17</v>
+      </c>
+      <c r="K343" s="3">
+        <v>14</v>
+      </c>
+      <c r="P343" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3321, name: "ギルガルド(ブレード)", hit_point: 60, attack: 140, block: 50, contact: 140, defense: 50, speed: 60, category_1: 17, category_2: 14)</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16">
       <c r="A344">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1">
+      <c r="B344">
+        <v>3331</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D344" s="3">
+        <v>50</v>
+      </c>
+      <c r="E344" s="3">
+        <v>85</v>
+      </c>
+      <c r="F344" s="3">
+        <v>55</v>
+      </c>
+      <c r="G344" s="3">
+        <v>65</v>
+      </c>
+      <c r="H344" s="3">
+        <v>65</v>
+      </c>
+      <c r="I344" s="3">
+        <v>90</v>
+      </c>
+      <c r="J344" s="2">
+        <v>11</v>
+      </c>
+      <c r="K344" s="3">
+        <v>0</v>
+      </c>
+      <c r="P344" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3331, name: "ポニータ(ガラル)", hit_point: 50, attack: 85, block: 55, contact: 65, defense: 65, speed: 90, category_1: 11, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16">
       <c r="A345">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1">
+      <c r="B345">
+        <v>3341</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D345" s="3">
+        <v>65</v>
+      </c>
+      <c r="E345" s="3">
+        <v>100</v>
+      </c>
+      <c r="F345" s="3">
+        <v>70</v>
+      </c>
+      <c r="G345" s="3">
+        <v>80</v>
+      </c>
+      <c r="H345" s="3">
+        <v>80</v>
+      </c>
+      <c r="I345" s="3">
+        <v>105</v>
+      </c>
+      <c r="J345" s="2">
+        <v>11</v>
+      </c>
+      <c r="K345" s="3">
+        <v>18</v>
+      </c>
+      <c r="P345" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3341, name: "ギャロップ(ガラル)", hit_point: 65, attack: 100, block: 70, contact: 80, defense: 80, speed: 105, category_1: 11, category_2: 18)</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16">
       <c r="A346">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1">
+      <c r="B346">
+        <v>3350</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D346" s="3">
+        <v>40</v>
+      </c>
+      <c r="E346" s="3">
+        <v>45</v>
+      </c>
+      <c r="F346" s="3">
+        <v>45</v>
+      </c>
+      <c r="G346" s="3">
+        <v>74</v>
+      </c>
+      <c r="H346" s="3">
+        <v>54</v>
+      </c>
+      <c r="I346" s="3">
+        <v>50</v>
+      </c>
+      <c r="J346" s="2">
+        <v>14</v>
+      </c>
+      <c r="K346" s="3">
+        <v>0</v>
+      </c>
+      <c r="P346" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3350, name: "ヤバチャ", hit_point: 40, attack: 45, block: 45, contact: 74, defense: 54, speed: 50, category_1: 14, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16">
       <c r="A347">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:1">
+      <c r="B347">
+        <v>3360</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D347" s="3">
+        <v>60</v>
+      </c>
+      <c r="E347" s="3">
+        <v>65</v>
+      </c>
+      <c r="F347" s="3">
+        <v>65</v>
+      </c>
+      <c r="G347" s="3">
+        <v>134</v>
+      </c>
+      <c r="H347" s="3">
+        <v>114</v>
+      </c>
+      <c r="I347" s="3">
+        <v>70</v>
+      </c>
+      <c r="J347" s="2">
+        <v>14</v>
+      </c>
+      <c r="K347" s="3">
+        <v>0</v>
+      </c>
+      <c r="P347" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3360, name: "ポットデス", hit_point: 60, attack: 65, block: 65, contact: 134, defense: 114, speed: 70, category_1: 14, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16">
       <c r="A348">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1">
+      <c r="B348">
+        <v>3370</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D348" s="3">
+        <v>60</v>
+      </c>
+      <c r="E348" s="3">
+        <v>65</v>
+      </c>
+      <c r="F348" s="3">
+        <v>55</v>
+      </c>
+      <c r="G348" s="3">
+        <v>105</v>
+      </c>
+      <c r="H348" s="3">
+        <v>95</v>
+      </c>
+      <c r="I348" s="3">
+        <v>95</v>
+      </c>
+      <c r="J348" s="2">
+        <v>11</v>
+      </c>
+      <c r="K348" s="3">
+        <v>1</v>
+      </c>
+      <c r="P348" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3370, name: "イエッサン(♂)", hit_point: 60, attack: 65, block: 55, contact: 105, defense: 95, speed: 95, category_1: 11, category_2: 1)</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16">
       <c r="A349">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:1">
+      <c r="B349">
+        <v>3371</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D349" s="3">
+        <v>70</v>
+      </c>
+      <c r="E349" s="3">
+        <v>55</v>
+      </c>
+      <c r="F349" s="3">
+        <v>65</v>
+      </c>
+      <c r="G349" s="3">
+        <v>95</v>
+      </c>
+      <c r="H349" s="3">
+        <v>105</v>
+      </c>
+      <c r="I349" s="3">
+        <v>85</v>
+      </c>
+      <c r="J349" s="2">
+        <v>11</v>
+      </c>
+      <c r="K349" s="3">
+        <v>1</v>
+      </c>
+      <c r="P349" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3371, name: "イエッサン(♀)", hit_point: 70, attack: 55, block: 65, contact: 95, defense: 105, speed: 85, category_1: 11, category_2: 1)</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16">
       <c r="A350">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1">
+      <c r="B350">
+        <v>3380</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D350" s="3">
+        <v>43</v>
+      </c>
+      <c r="E350" s="3">
+        <v>70</v>
+      </c>
+      <c r="F350" s="3">
+        <v>48</v>
+      </c>
+      <c r="G350" s="3">
+        <v>50</v>
+      </c>
+      <c r="H350" s="3">
+        <v>60</v>
+      </c>
+      <c r="I350" s="3">
+        <v>38</v>
+      </c>
+      <c r="J350" s="2">
+        <v>14</v>
+      </c>
+      <c r="K350" s="3">
+        <v>5</v>
+      </c>
+      <c r="P350" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3380, name: "ボクレー", hit_point: 43, attack: 70, block: 48, contact: 50, defense: 60, speed: 38, category_1: 14, category_2: 5)</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16">
       <c r="A351">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:1">
+      <c r="B351">
+        <v>3390</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D351" s="3">
+        <v>85</v>
+      </c>
+      <c r="E351" s="3">
+        <v>110</v>
+      </c>
+      <c r="F351" s="3">
+        <v>76</v>
+      </c>
+      <c r="G351" s="3">
+        <v>65</v>
+      </c>
+      <c r="H351" s="3">
+        <v>82</v>
+      </c>
+      <c r="I351" s="3">
+        <v>56</v>
+      </c>
+      <c r="J351" s="2">
+        <v>14</v>
+      </c>
+      <c r="K351" s="3">
+        <v>5</v>
+      </c>
+      <c r="P351" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3390, name: "オーロット", hit_point: 85, attack: 110, block: 76, contact: 65, defense: 82, speed: 56, category_1: 14, category_2: 5)</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16">
       <c r="A352">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1">
+      <c r="B352">
+        <v>3400</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D352" s="3">
+        <v>40</v>
+      </c>
+      <c r="E352" s="3">
+        <v>35</v>
+      </c>
+      <c r="F352" s="3">
+        <v>55</v>
+      </c>
+      <c r="G352" s="3">
+        <v>65</v>
+      </c>
+      <c r="H352" s="3">
+        <v>75</v>
+      </c>
+      <c r="I352" s="3">
+        <v>15</v>
+      </c>
+      <c r="J352" s="2">
+        <v>5</v>
+      </c>
+      <c r="K352" s="3">
+        <v>18</v>
+      </c>
+      <c r="P352" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3400, name: "ネマシュ", hit_point: 40, attack: 35, block: 55, contact: 65, defense: 75, speed: 15, category_1: 5, category_2: 18)</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16">
       <c r="A353">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1">
+      <c r="B353">
+        <v>3410</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D353" s="3">
+        <v>60</v>
+      </c>
+      <c r="E353" s="3">
+        <v>45</v>
+      </c>
+      <c r="F353" s="3">
+        <v>80</v>
+      </c>
+      <c r="G353" s="3">
+        <v>90</v>
+      </c>
+      <c r="H353" s="3">
+        <v>100</v>
+      </c>
+      <c r="I353" s="3">
+        <v>30</v>
+      </c>
+      <c r="J353" s="2">
+        <v>5</v>
+      </c>
+      <c r="K353" s="3">
+        <v>18</v>
+      </c>
+      <c r="P353" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3410, name: "マシェード", hit_point: 60, attack: 45, block: 80, contact: 90, defense: 100, speed: 30, category_1: 5, category_2: 18)</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16">
       <c r="A354">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1">
+      <c r="B354">
+        <v>3420</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D354" s="3">
+        <v>90</v>
+      </c>
+      <c r="E354" s="3">
+        <v>60</v>
+      </c>
+      <c r="F354" s="3">
+        <v>80</v>
+      </c>
+      <c r="G354" s="3">
+        <v>90</v>
+      </c>
+      <c r="H354" s="3">
+        <v>110</v>
+      </c>
+      <c r="I354" s="3">
+        <v>60</v>
+      </c>
+      <c r="J354" s="2">
+        <v>1</v>
+      </c>
+      <c r="K354" s="3">
+        <v>11</v>
+      </c>
+      <c r="P354" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3420, name: "ヤレユータン", hit_point: 90, attack: 60, block: 80, contact: 90, defense: 110, speed: 60, category_1: 1, category_2: 11)</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16">
       <c r="A355">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1">
+      <c r="B355">
+        <v>3430</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D355" s="3">
+        <v>100</v>
+      </c>
+      <c r="E355" s="3">
+        <v>120</v>
+      </c>
+      <c r="F355" s="3">
+        <v>90</v>
+      </c>
+      <c r="G355" s="3">
+        <v>40</v>
+      </c>
+      <c r="H355" s="3">
+        <v>60</v>
+      </c>
+      <c r="I355" s="3">
+        <v>80</v>
+      </c>
+      <c r="J355" s="2">
+        <v>7</v>
+      </c>
+      <c r="K355" s="3">
+        <v>0</v>
+      </c>
+      <c r="P355" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3430, name: "ナゲツケサル", hit_point: 100, attack: 120, block: 90, contact: 40, defense: 60, speed: 80, category_1: 7, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16">
       <c r="A356">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1">
+      <c r="B356">
+        <v>3440</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D356" s="3">
+        <v>58</v>
+      </c>
+      <c r="E356" s="3">
+        <v>95</v>
+      </c>
+      <c r="F356" s="3">
+        <v>58</v>
+      </c>
+      <c r="G356" s="3">
+        <v>70</v>
+      </c>
+      <c r="H356" s="3">
+        <v>58</v>
+      </c>
+      <c r="I356" s="3">
+        <v>97</v>
+      </c>
+      <c r="J356" s="2">
+        <v>4</v>
+      </c>
+      <c r="K356" s="3">
+        <v>16</v>
+      </c>
+      <c r="P356" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3440, name: "モルペコ", hit_point: 58, attack: 95, block: 58, contact: 70, defense: 58, speed: 97, category_1: 4, category_2: 16)</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16">
       <c r="A357">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1">
+      <c r="B357">
+        <v>3450</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D357" s="3">
+        <v>65</v>
+      </c>
+      <c r="E357" s="3">
+        <v>100</v>
+      </c>
+      <c r="F357" s="3">
+        <v>100</v>
+      </c>
+      <c r="G357" s="3">
+        <v>70</v>
+      </c>
+      <c r="H357" s="3">
+        <v>60</v>
+      </c>
+      <c r="I357" s="3">
+        <v>75</v>
+      </c>
+      <c r="J357" s="2">
+        <v>7</v>
+      </c>
+      <c r="K357" s="3">
+        <v>0</v>
+      </c>
+      <c r="P357" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3450, name: "タイレーツ", hit_point: 65, attack: 100, block: 100, contact: 70, defense: 60, speed: 75, category_1: 7, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16">
       <c r="A358">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1">
+      <c r="B358">
+        <v>3460</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D358" s="3">
+        <v>78</v>
+      </c>
+      <c r="E358" s="3">
+        <v>60</v>
+      </c>
+      <c r="F358" s="3">
+        <v>85</v>
+      </c>
+      <c r="G358" s="3">
+        <v>135</v>
+      </c>
+      <c r="H358" s="3">
+        <v>91</v>
+      </c>
+      <c r="I358" s="3">
+        <v>36</v>
+      </c>
+      <c r="J358" s="2">
+        <v>1</v>
+      </c>
+      <c r="K358" s="3">
+        <v>15</v>
+      </c>
+      <c r="P358" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3460, name: "ジジーロン", hit_point: 78, attack: 60, block: 85, contact: 135, defense: 91, speed: 36, category_1: 1, category_2: 15)</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16">
       <c r="A359">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1">
+      <c r="B359">
+        <v>3470</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D359" s="3">
+        <v>60</v>
+      </c>
+      <c r="E359" s="3">
+        <v>78</v>
+      </c>
+      <c r="F359" s="3">
+        <v>135</v>
+      </c>
+      <c r="G359" s="3">
+        <v>91</v>
+      </c>
+      <c r="H359" s="3">
+        <v>85</v>
+      </c>
+      <c r="I359" s="3">
+        <v>36</v>
+      </c>
+      <c r="J359" s="2">
+        <v>2</v>
+      </c>
+      <c r="K359" s="3">
+        <v>15</v>
+      </c>
+      <c r="P359" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3470, name: "バクガメス", hit_point: 60, attack: 78, block: 135, contact: 91, defense: 85, speed: 36, category_1: 2, category_2: 15)</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16">
       <c r="A360">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1">
+      <c r="B360">
+        <v>3480</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D360" s="3">
+        <v>65</v>
+      </c>
+      <c r="E360" s="3">
+        <v>98</v>
+      </c>
+      <c r="F360" s="3">
+        <v>63</v>
+      </c>
+      <c r="G360" s="3">
+        <v>40</v>
+      </c>
+      <c r="H360" s="3">
+        <v>73</v>
+      </c>
+      <c r="I360" s="3">
+        <v>96</v>
+      </c>
+      <c r="J360" s="2">
+        <v>4</v>
+      </c>
+      <c r="K360" s="3">
+        <v>17</v>
+      </c>
+      <c r="P360" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3480, name: "トゲデマル", hit_point: 65, attack: 98, block: 63, contact: 40, defense: 73, speed: 96, category_1: 4, category_2: 17)</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16">
       <c r="A361">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1">
+      <c r="B361">
+        <v>3490</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D361" s="3">
+        <v>30</v>
+      </c>
+      <c r="E361" s="3">
+        <v>25</v>
+      </c>
+      <c r="F361" s="3">
+        <v>35</v>
+      </c>
+      <c r="G361" s="3">
+        <v>45</v>
+      </c>
+      <c r="H361" s="3">
+        <v>30</v>
+      </c>
+      <c r="I361" s="3">
+        <v>20</v>
+      </c>
+      <c r="J361" s="2">
+        <v>6</v>
+      </c>
+      <c r="K361" s="3">
+        <v>12</v>
+      </c>
+      <c r="P361" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3490, name: "ユキハミ", hit_point: 30, attack: 25, block: 35, contact: 45, defense: 30, speed: 20, category_1: 6, category_2: 12)</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16">
       <c r="A362">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1">
+      <c r="B362">
+        <v>3500</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D362" s="3">
+        <v>70</v>
+      </c>
+      <c r="E362" s="3">
+        <v>65</v>
+      </c>
+      <c r="F362" s="3">
+        <v>60</v>
+      </c>
+      <c r="G362" s="3">
+        <v>125</v>
+      </c>
+      <c r="H362" s="3">
+        <v>90</v>
+      </c>
+      <c r="I362" s="3">
+        <v>65</v>
+      </c>
+      <c r="J362" s="2">
+        <v>6</v>
+      </c>
+      <c r="K362" s="3">
+        <v>12</v>
+      </c>
+      <c r="P362" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3500, name: "モスノウ", hit_point: 70, attack: 65, block: 60, contact: 125, defense: 90, speed: 65, category_1: 6, category_2: 12)</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16">
       <c r="A363">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1">
+      <c r="B363">
+        <v>3510</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D363" s="3">
+        <v>50</v>
+      </c>
+      <c r="E363" s="3">
+        <v>68</v>
+      </c>
+      <c r="F363" s="3">
+        <v>60</v>
+      </c>
+      <c r="G363" s="3">
+        <v>50</v>
+      </c>
+      <c r="H363" s="3">
+        <v>50</v>
+      </c>
+      <c r="I363" s="3">
+        <v>32</v>
+      </c>
+      <c r="J363" s="2">
+        <v>7</v>
+      </c>
+      <c r="K363" s="3">
+        <v>0</v>
+      </c>
+      <c r="P363" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3510, name: "タタッコ", hit_point: 50, attack: 68, block: 60, contact: 50, defense: 50, speed: 32, category_1: 7, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16">
       <c r="A364">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1">
+      <c r="B364">
+        <v>3520</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D364" s="3">
+        <v>80</v>
+      </c>
+      <c r="E364" s="3">
+        <v>118</v>
+      </c>
+      <c r="F364" s="3">
+        <v>90</v>
+      </c>
+      <c r="G364" s="3">
+        <v>70</v>
+      </c>
+      <c r="H364" s="3">
+        <v>80</v>
+      </c>
+      <c r="I364" s="3">
+        <v>42</v>
+      </c>
+      <c r="J364" s="2">
+        <v>7</v>
+      </c>
+      <c r="K364" s="3">
+        <v>0</v>
+      </c>
+      <c r="P364" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3520, name: "オトスパス", hit_point: 80, attack: 118, block: 90, contact: 70, defense: 80, speed: 42, category_1: 7, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16">
       <c r="A365">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1">
+      <c r="B365">
+        <v>3530</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D365" s="3">
+        <v>48</v>
+      </c>
+      <c r="E365" s="3">
+        <v>101</v>
+      </c>
+      <c r="F365" s="3">
+        <v>95</v>
+      </c>
+      <c r="G365" s="3">
+        <v>91</v>
+      </c>
+      <c r="H365" s="3">
+        <v>85</v>
+      </c>
+      <c r="I365" s="3">
+        <v>15</v>
+      </c>
+      <c r="J365" s="2">
+        <v>4</v>
+      </c>
+      <c r="K365" s="3">
+        <v>0</v>
+      </c>
+      <c r="P365" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3530, name: "バチンウニ", hit_point: 48, attack: 101, block: 95, contact: 91, defense: 85, speed: 15, category_1: 4, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16">
       <c r="A366">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1">
+      <c r="B366">
+        <v>3540</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D366" s="3">
+        <v>45</v>
+      </c>
+      <c r="E366" s="3">
+        <v>20</v>
+      </c>
+      <c r="F366" s="3">
+        <v>50</v>
+      </c>
+      <c r="G366" s="3">
+        <v>60</v>
+      </c>
+      <c r="H366" s="3">
+        <v>120</v>
+      </c>
+      <c r="I366" s="3">
+        <v>50</v>
+      </c>
+      <c r="J366" s="2">
+        <v>3</v>
+      </c>
+      <c r="K366" s="3">
+        <v>10</v>
+      </c>
+      <c r="P366" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3540, name: "タマンタ", hit_point: 45, attack: 20, block: 50, contact: 60, defense: 120, speed: 50, category_1: 3, category_2: 10)</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16">
       <c r="A367">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1">
+      <c r="B367">
+        <v>3550</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D367" s="3">
+        <v>85</v>
+      </c>
+      <c r="E367" s="3">
+        <v>40</v>
+      </c>
+      <c r="F367" s="3">
+        <v>70</v>
+      </c>
+      <c r="G367" s="3">
+        <v>80</v>
+      </c>
+      <c r="H367" s="3">
+        <v>140</v>
+      </c>
+      <c r="I367" s="3">
+        <v>70</v>
+      </c>
+      <c r="J367" s="2">
+        <v>3</v>
+      </c>
+      <c r="K367" s="3">
+        <v>10</v>
+      </c>
+      <c r="P367" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3550, name: "マンタイン", hit_point: 85, attack: 40, block: 70, contact: 80, defense: 140, speed: 70, category_1: 3, category_2: 10)</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16">
       <c r="A368">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1">
+      <c r="B368">
+        <v>3560</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D368" s="3">
+        <v>130</v>
+      </c>
+      <c r="E368" s="3">
+        <v>70</v>
+      </c>
+      <c r="F368" s="3">
+        <v>35</v>
+      </c>
+      <c r="G368" s="3">
+        <v>70</v>
+      </c>
+      <c r="H368" s="3">
+        <v>35</v>
+      </c>
+      <c r="I368" s="3">
+        <v>60</v>
+      </c>
+      <c r="J368" s="2">
+        <v>3</v>
+      </c>
+      <c r="K368" s="3">
+        <v>0</v>
+      </c>
+      <c r="P368" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3560, name: "ホエルコ", hit_point: 130, attack: 70, block: 35, contact: 70, defense: 35, speed: 60, category_1: 3, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16">
       <c r="A369">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1">
+      <c r="B369">
+        <v>3570</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D369" s="3">
+        <v>170</v>
+      </c>
+      <c r="E369" s="3">
+        <v>90</v>
+      </c>
+      <c r="F369" s="3">
+        <v>45</v>
+      </c>
+      <c r="G369" s="3">
+        <v>90</v>
+      </c>
+      <c r="H369" s="3">
+        <v>45</v>
+      </c>
+      <c r="I369" s="3">
+        <v>60</v>
+      </c>
+      <c r="J369" s="2">
+        <v>3</v>
+      </c>
+      <c r="K369" s="3">
+        <v>0</v>
+      </c>
+      <c r="P369" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3570, name: "ホエルオー", hit_point: 170, attack: 90, block: 45, contact: 90, defense: 45, speed: 60, category_1: 3, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16">
       <c r="A370">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1">
+      <c r="B370">
+        <v>3580</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D370" s="3">
+        <v>55</v>
+      </c>
+      <c r="E370" s="3">
+        <v>69</v>
+      </c>
+      <c r="F370" s="3">
+        <v>85</v>
+      </c>
+      <c r="G370" s="3">
+        <v>32</v>
+      </c>
+      <c r="H370" s="3">
+        <v>35</v>
+      </c>
+      <c r="I370" s="3">
+        <v>28</v>
+      </c>
+      <c r="J370" s="2">
+        <v>6</v>
+      </c>
+      <c r="K370" s="3">
+        <v>0</v>
+      </c>
+      <c r="P370" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3580, name: "カチコール", hit_point: 55, attack: 69, block: 85, contact: 32, defense: 35, speed: 28, category_1: 6, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16">
       <c r="A371">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1">
+      <c r="B371">
+        <v>3590</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D371" s="3">
+        <v>95</v>
+      </c>
+      <c r="E371" s="3">
+        <v>117</v>
+      </c>
+      <c r="F371" s="3">
+        <v>184</v>
+      </c>
+      <c r="G371" s="3">
+        <v>44</v>
+      </c>
+      <c r="H371" s="3">
+        <v>46</v>
+      </c>
+      <c r="I371" s="3">
+        <v>28</v>
+      </c>
+      <c r="J371" s="2">
+        <v>6</v>
+      </c>
+      <c r="K371" s="3">
+        <v>0</v>
+      </c>
+      <c r="P371" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3590, name: "クレベース", hit_point: 95, attack: 117, block: 184, contact: 44, defense: 46, speed: 28, category_1: 6, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16">
       <c r="A372">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1">
+      <c r="B372">
+        <v>3600</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D372" s="3">
+        <v>70</v>
+      </c>
+      <c r="E372" s="3">
+        <v>131</v>
+      </c>
+      <c r="F372" s="3">
+        <v>100</v>
+      </c>
+      <c r="G372" s="3">
+        <v>86</v>
+      </c>
+      <c r="H372" s="3">
+        <v>90</v>
+      </c>
+      <c r="I372" s="3">
+        <v>40</v>
+      </c>
+      <c r="J372" s="2">
+        <v>14</v>
+      </c>
+      <c r="K372" s="3">
+        <v>5</v>
+      </c>
+      <c r="P372" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3600, name: "ダダリン", hit_point: 70, attack: 131, block: 100, contact: 86, defense: 90, speed: 40, category_1: 14, category_2: 5)</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16">
       <c r="A373">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1">
+      <c r="B373">
+        <v>3610</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D373" s="3">
+        <v>130</v>
+      </c>
+      <c r="E373" s="3">
+        <v>85</v>
+      </c>
+      <c r="F373" s="3">
+        <v>80</v>
+      </c>
+      <c r="G373" s="3">
+        <v>85</v>
+      </c>
+      <c r="H373" s="3">
+        <v>95</v>
+      </c>
+      <c r="I373" s="3">
+        <v>60</v>
+      </c>
+      <c r="J373" s="2">
+        <v>3</v>
+      </c>
+      <c r="K373" s="3">
+        <v>6</v>
+      </c>
+      <c r="P373" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3610, name: "ラプラス", hit_point: 130, attack: 85, block: 80, contact: 85, defense: 95, speed: 60, category_1: 3, category_2: 6)</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16">
       <c r="A374">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1">
+      <c r="B374">
+        <v>3620</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D374" s="3">
+        <v>90</v>
+      </c>
+      <c r="E374" s="3">
+        <v>55</v>
+      </c>
+      <c r="F374" s="3">
+        <v>65</v>
+      </c>
+      <c r="G374" s="3">
+        <v>95</v>
+      </c>
+      <c r="H374" s="3">
+        <v>85</v>
+      </c>
+      <c r="I374" s="3">
+        <v>70</v>
+      </c>
+      <c r="J374" s="2">
+        <v>13</v>
+      </c>
+      <c r="K374" s="3">
+        <v>11</v>
+      </c>
+      <c r="P374" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3620, name: "ルナトーン", hit_point: 90, attack: 55, block: 65, contact: 95, defense: 85, speed: 70, category_1: 13, category_2: 11)</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16">
       <c r="A375">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1">
+      <c r="B375">
+        <v>3630</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D375" s="3">
+        <v>90</v>
+      </c>
+      <c r="E375" s="3">
+        <v>95</v>
+      </c>
+      <c r="F375" s="3">
+        <v>85</v>
+      </c>
+      <c r="G375" s="3">
+        <v>55</v>
+      </c>
+      <c r="H375" s="3">
+        <v>65</v>
+      </c>
+      <c r="I375" s="3">
+        <v>70</v>
+      </c>
+      <c r="J375" s="2">
+        <v>13</v>
+      </c>
+      <c r="K375" s="3">
+        <v>11</v>
+      </c>
+      <c r="P375" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3630, name: "ソルロック", hit_point: 90, attack: 95, block: 85, contact: 55, defense: 65, speed: 70, category_1: 13, category_2: 11)</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16">
       <c r="A376">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1">
+      <c r="B376">
+        <v>3640</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D376" s="3">
+        <v>20</v>
+      </c>
+      <c r="E376" s="3">
+        <v>25</v>
+      </c>
+      <c r="F376" s="3">
+        <v>45</v>
+      </c>
+      <c r="G376" s="3">
+        <v>70</v>
+      </c>
+      <c r="H376" s="3">
+        <v>90</v>
+      </c>
+      <c r="I376" s="3">
+        <v>60</v>
+      </c>
+      <c r="J376" s="2">
+        <v>11</v>
+      </c>
+      <c r="K376" s="3">
+        <v>18</v>
+      </c>
+      <c r="P376" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3640, name: "マネネ", hit_point: 20, attack: 25, block: 45, contact: 70, defense: 90, speed: 60, category_1: 11, category_2: 18)</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16">
       <c r="A377">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1">
+      <c r="B377">
+        <v>3650</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D377" s="3">
+        <v>40</v>
+      </c>
+      <c r="E377" s="3">
+        <v>45</v>
+      </c>
+      <c r="F377" s="3">
+        <v>65</v>
+      </c>
+      <c r="G377" s="3">
+        <v>100</v>
+      </c>
+      <c r="H377" s="3">
+        <v>120</v>
+      </c>
+      <c r="I377" s="3">
+        <v>90</v>
+      </c>
+      <c r="J377" s="2">
+        <v>11</v>
+      </c>
+      <c r="K377" s="3">
+        <v>18</v>
+      </c>
+      <c r="P377" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3650, name: "バリヤード", hit_point: 40, attack: 45, block: 65, contact: 100, defense: 120, speed: 90, category_1: 11, category_2: 18)</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16">
       <c r="A378">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1">
+      <c r="B378">
+        <v>3651</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D378" s="3">
+        <v>50</v>
+      </c>
+      <c r="E378" s="3">
+        <v>65</v>
+      </c>
+      <c r="F378" s="3">
+        <v>65</v>
+      </c>
+      <c r="G378" s="3">
+        <v>90</v>
+      </c>
+      <c r="H378" s="3">
+        <v>90</v>
+      </c>
+      <c r="I378" s="3">
+        <v>100</v>
+      </c>
+      <c r="J378" s="2">
+        <v>6</v>
+      </c>
+      <c r="K378" s="3">
+        <v>11</v>
+      </c>
+      <c r="P378" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3651, name: "バリヤード(ガラル)", hit_point: 50, attack: 65, block: 65, contact: 90, defense: 90, speed: 100, category_1: 6, category_2: 11)</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16">
       <c r="A379">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1">
+      <c r="B379">
+        <v>3660</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D379" s="3">
+        <v>80</v>
+      </c>
+      <c r="E379" s="3">
+        <v>85</v>
+      </c>
+      <c r="F379" s="3">
+        <v>75</v>
+      </c>
+      <c r="G379" s="3">
+        <v>110</v>
+      </c>
+      <c r="H379" s="3">
+        <v>100</v>
+      </c>
+      <c r="I379" s="3">
+        <v>70</v>
+      </c>
+      <c r="J379" s="2">
+        <v>6</v>
+      </c>
+      <c r="K379" s="3">
+        <v>11</v>
+      </c>
+      <c r="P379" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3660, name: "バリコオル", hit_point: 80, attack: 85, block: 75, contact: 110, defense: 100, speed: 70, category_1: 6, category_2: 11)</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16">
       <c r="A380">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1">
+      <c r="B380">
+        <v>3671</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D380" s="3">
+        <v>70</v>
+      </c>
+      <c r="E380" s="3">
+        <v>90</v>
+      </c>
+      <c r="F380" s="3">
+        <v>45</v>
+      </c>
+      <c r="G380" s="3">
+        <v>15</v>
+      </c>
+      <c r="H380" s="3">
+        <v>45</v>
+      </c>
+      <c r="I380" s="3">
+        <v>50</v>
+      </c>
+      <c r="J380" s="2">
+        <v>6</v>
+      </c>
+      <c r="K380" s="3">
+        <v>0</v>
+      </c>
+      <c r="P380" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3671, name: "ダルマッカ(ガラル)", hit_point: 70, attack: 90, block: 45, contact: 15, defense: 45, speed: 50, category_1: 6, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16">
       <c r="A381">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1">
+      <c r="B381">
+        <v>3681</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D381" s="3">
+        <v>105</v>
+      </c>
+      <c r="E381" s="3">
+        <v>140</v>
+      </c>
+      <c r="F381" s="3">
+        <v>55</v>
+      </c>
+      <c r="G381" s="3">
+        <v>30</v>
+      </c>
+      <c r="H381" s="3">
+        <v>55</v>
+      </c>
+      <c r="I381" s="3">
+        <v>95</v>
+      </c>
+      <c r="J381" s="2">
+        <v>6</v>
+      </c>
+      <c r="K381" s="3">
+        <v>0</v>
+      </c>
+      <c r="P381" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3681, name: "ヒヒダルマ(ガラル)", hit_point: 105, attack: 140, block: 55, contact: 30, defense: 55, speed: 95, category_1: 6, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16">
       <c r="A382">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1">
+      <c r="B382">
+        <v>3683</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D382" s="3">
+        <v>105</v>
+      </c>
+      <c r="E382" s="3">
+        <v>160</v>
+      </c>
+      <c r="F382" s="3">
+        <v>55</v>
+      </c>
+      <c r="G382" s="3">
+        <v>30</v>
+      </c>
+      <c r="H382" s="3">
+        <v>55</v>
+      </c>
+      <c r="I382" s="3">
+        <v>135</v>
+      </c>
+      <c r="J382" s="2">
+        <v>6</v>
+      </c>
+      <c r="K382" s="3">
+        <v>2</v>
+      </c>
+      <c r="P382" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3683, name: "ヒヒダルマ(ガラル, ダルマ)", hit_point: 105, attack: 160, block: 55, contact: 30, defense: 55, speed: 135, category_1: 6, category_2: 2)</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16">
       <c r="A383">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1">
+      <c r="B383">
+        <v>3690</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D383" s="3">
+        <v>100</v>
+      </c>
+      <c r="E383" s="3">
+        <v>125</v>
+      </c>
+      <c r="F383" s="3">
+        <v>135</v>
+      </c>
+      <c r="G383" s="3">
+        <v>20</v>
+      </c>
+      <c r="H383" s="3">
+        <v>20</v>
+      </c>
+      <c r="I383" s="3">
+        <v>70</v>
+      </c>
+      <c r="J383" s="2">
+        <v>13</v>
+      </c>
+      <c r="K383" s="3">
+        <v>0</v>
+      </c>
+      <c r="P383" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3690, name: "イシヘンジン", hit_point: 100, attack: 125, block: 135, contact: 20, defense: 20, speed: 70, category_1: 13, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16">
       <c r="A384">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1">
+      <c r="B384">
+        <v>3700</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D384" s="3">
+        <v>75</v>
+      </c>
+      <c r="E384" s="3">
+        <v>80</v>
+      </c>
+      <c r="F384" s="3">
+        <v>110</v>
+      </c>
+      <c r="G384" s="3">
+        <v>65</v>
+      </c>
+      <c r="H384" s="3">
+        <v>90</v>
+      </c>
+      <c r="I384" s="3">
+        <v>50</v>
+      </c>
+      <c r="J384" s="2">
+        <v>6</v>
+      </c>
+      <c r="K384" s="3">
+        <v>0</v>
+      </c>
+      <c r="P384" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3700, name: "コオリッポ(アイス)", hit_point: 75, attack: 80, block: 110, contact: 65, defense: 90, speed: 50, category_1: 6, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16">
       <c r="A385">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1">
+      <c r="B385">
+        <v>3701</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D385" s="3">
+        <v>75</v>
+      </c>
+      <c r="E385" s="3">
+        <v>80</v>
+      </c>
+      <c r="F385" s="3">
+        <v>70</v>
+      </c>
+      <c r="G385" s="3">
+        <v>65</v>
+      </c>
+      <c r="H385" s="3">
+        <v>50</v>
+      </c>
+      <c r="I385" s="3">
+        <v>130</v>
+      </c>
+      <c r="J385" s="2">
+        <v>6</v>
+      </c>
+      <c r="K385" s="3">
+        <v>0</v>
+      </c>
+      <c r="P385" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3701, name: "コオリッポ(ナイス)", hit_point: 75, attack: 80, block: 70, contact: 65, defense: 50, speed: 130, category_1: 6, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16">
       <c r="A386">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1">
+      <c r="B386">
+        <v>3710</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D386" s="3">
+        <v>70</v>
+      </c>
+      <c r="E386" s="3">
+        <v>95</v>
+      </c>
+      <c r="F386" s="3">
+        <v>115</v>
+      </c>
+      <c r="G386" s="3">
+        <v>120</v>
+      </c>
+      <c r="H386" s="3">
+        <v>50</v>
+      </c>
+      <c r="I386" s="3">
+        <v>85</v>
+      </c>
+      <c r="J386" s="2">
+        <v>17</v>
+      </c>
+      <c r="K386" s="3">
+        <v>15</v>
+      </c>
+      <c r="P386" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3710, name: "ジュラルドン", hit_point: 70, attack: 95, block: 115, contact: 120, defense: 50, speed: 85, category_1: 17, category_2: 15)</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16">
       <c r="A387">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1">
+      <c r="B387">
+        <v>3720</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D387" s="3">
+        <v>50</v>
+      </c>
+      <c r="E387" s="3">
+        <v>50</v>
+      </c>
+      <c r="F387" s="3">
+        <v>77</v>
+      </c>
+      <c r="G387" s="3">
+        <v>95</v>
+      </c>
+      <c r="H387" s="3">
+        <v>77</v>
+      </c>
+      <c r="I387" s="3">
+        <v>91</v>
+      </c>
+      <c r="J387" s="2">
+        <v>4</v>
+      </c>
+      <c r="K387" s="3">
+        <v>14</v>
+      </c>
+      <c r="P387" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3720, name: "ロトム", hit_point: 50, attack: 50, block: 77, contact: 95, defense: 77, speed: 91, category_1: 4, category_2: 14)</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16">
       <c r="A388">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1">
+      <c r="B388">
+        <v>3721</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D388" s="3">
+        <v>50</v>
+      </c>
+      <c r="E388" s="3">
+        <v>65</v>
+      </c>
+      <c r="F388" s="3">
+        <v>107</v>
+      </c>
+      <c r="G388" s="3">
+        <v>105</v>
+      </c>
+      <c r="H388" s="3">
+        <v>107</v>
+      </c>
+      <c r="I388" s="3">
+        <v>86</v>
+      </c>
+      <c r="J388" s="2">
+        <v>4</v>
+      </c>
+      <c r="K388" s="3">
+        <v>2</v>
+      </c>
+      <c r="P388" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3721, name: "ヒートロトム", hit_point: 50, attack: 65, block: 107, contact: 105, defense: 107, speed: 86, category_1: 4, category_2: 2)</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16">
       <c r="A389">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1">
+      <c r="B389">
+        <v>3722</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D389" s="3">
+        <v>50</v>
+      </c>
+      <c r="E389" s="3">
+        <v>65</v>
+      </c>
+      <c r="F389" s="3">
+        <v>107</v>
+      </c>
+      <c r="G389" s="3">
+        <v>105</v>
+      </c>
+      <c r="H389" s="3">
+        <v>107</v>
+      </c>
+      <c r="I389" s="3">
+        <v>86</v>
+      </c>
+      <c r="J389" s="2">
+        <v>4</v>
+      </c>
+      <c r="K389" s="3">
+        <v>3</v>
+      </c>
+      <c r="P389" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3722, name: "ウォッシュロトム", hit_point: 50, attack: 65, block: 107, contact: 105, defense: 107, speed: 86, category_1: 4, category_2: 3)</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16">
       <c r="A390">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1">
+      <c r="B390">
+        <v>3723</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D390" s="3">
+        <v>50</v>
+      </c>
+      <c r="E390" s="3">
+        <v>65</v>
+      </c>
+      <c r="F390" s="3">
+        <v>107</v>
+      </c>
+      <c r="G390" s="3">
+        <v>105</v>
+      </c>
+      <c r="H390" s="3">
+        <v>107</v>
+      </c>
+      <c r="I390" s="3">
+        <v>86</v>
+      </c>
+      <c r="J390" s="2">
+        <v>4</v>
+      </c>
+      <c r="K390" s="3">
+        <v>6</v>
+      </c>
+      <c r="P390" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3723, name: "フロストロトム", hit_point: 50, attack: 65, block: 107, contact: 105, defense: 107, speed: 86, category_1: 4, category_2: 6)</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16">
       <c r="A391">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1">
+      <c r="B391">
+        <v>3724</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D391" s="3">
+        <v>50</v>
+      </c>
+      <c r="E391" s="3">
+        <v>65</v>
+      </c>
+      <c r="F391" s="3">
+        <v>107</v>
+      </c>
+      <c r="G391" s="3">
+        <v>105</v>
+      </c>
+      <c r="H391" s="3">
+        <v>107</v>
+      </c>
+      <c r="I391" s="3">
+        <v>86</v>
+      </c>
+      <c r="J391" s="2">
+        <v>4</v>
+      </c>
+      <c r="K391" s="3">
+        <v>10</v>
+      </c>
+      <c r="P391" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3724, name: "スピンロトム", hit_point: 50, attack: 65, block: 107, contact: 105, defense: 107, speed: 86, category_1: 4, category_2: 10)</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16">
       <c r="A392">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1">
+      <c r="B392">
+        <v>3725</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D392" s="3">
+        <v>50</v>
+      </c>
+      <c r="E392" s="3">
+        <v>65</v>
+      </c>
+      <c r="F392" s="3">
+        <v>107</v>
+      </c>
+      <c r="G392" s="3">
+        <v>105</v>
+      </c>
+      <c r="H392" s="3">
+        <v>107</v>
+      </c>
+      <c r="I392" s="3">
+        <v>86</v>
+      </c>
+      <c r="J392" s="2">
+        <v>4</v>
+      </c>
+      <c r="K392" s="3">
+        <v>5</v>
+      </c>
+      <c r="P392" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3725, name: "カットロトム", hit_point: 50, attack: 65, block: 107, contact: 105, defense: 107, speed: 86, category_1: 4, category_2: 5)</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16">
       <c r="A393">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1">
+      <c r="B393">
+        <v>3730</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D393" s="3">
+        <v>48</v>
+      </c>
+      <c r="E393" s="3">
+        <v>48</v>
+      </c>
+      <c r="F393" s="3">
+        <v>48</v>
+      </c>
+      <c r="G393" s="3">
+        <v>48</v>
+      </c>
+      <c r="H393" s="3">
+        <v>48</v>
+      </c>
+      <c r="I393" s="3">
+        <v>48</v>
+      </c>
+      <c r="J393" s="2">
+        <v>1</v>
+      </c>
+      <c r="K393" s="3">
+        <v>0</v>
+      </c>
+      <c r="P393" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3730, name: "メタモン", hit_point: 48, attack: 48, block: 48, contact: 48, defense: 48, speed: 48, category_1: 1, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16">
       <c r="A394">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1">
+      <c r="B394">
+        <v>3740</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D394" s="3">
+        <v>90</v>
+      </c>
+      <c r="E394" s="3">
+        <v>100</v>
+      </c>
+      <c r="F394" s="3">
+        <v>90</v>
+      </c>
+      <c r="G394" s="3">
+        <v>80</v>
+      </c>
+      <c r="H394" s="3">
+        <v>70</v>
+      </c>
+      <c r="I394" s="3">
+        <v>75</v>
+      </c>
+      <c r="J394" s="2">
+        <v>4</v>
+      </c>
+      <c r="K394" s="3">
+        <v>15</v>
+      </c>
+      <c r="P394" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3740, name: "パッチラゴン", hit_point: 90, attack: 100, block: 90, contact: 80, defense: 70, speed: 75, category_1: 4, category_2: 15)</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16">
       <c r="A395">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1">
+      <c r="B395">
+        <v>3750</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D395" s="3">
+        <v>90</v>
+      </c>
+      <c r="E395" s="3">
+        <v>100</v>
+      </c>
+      <c r="F395" s="3">
+        <v>90</v>
+      </c>
+      <c r="G395" s="3">
+        <v>90</v>
+      </c>
+      <c r="H395" s="3">
+        <v>80</v>
+      </c>
+      <c r="I395" s="3">
+        <v>55</v>
+      </c>
+      <c r="J395" s="2">
+        <v>4</v>
+      </c>
+      <c r="K395" s="3">
+        <v>6</v>
+      </c>
+      <c r="P395" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3750, name: "パッチルドン", hit_point: 90, attack: 100, block: 90, contact: 90, defense: 80, speed: 55, category_1: 4, category_2: 6)</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16">
       <c r="A396">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1">
+      <c r="B396">
+        <v>3760</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D396" s="3">
+        <v>90</v>
+      </c>
+      <c r="E396" s="3">
+        <v>90</v>
+      </c>
+      <c r="F396" s="3">
+        <v>100</v>
+      </c>
+      <c r="G396" s="3">
+        <v>70</v>
+      </c>
+      <c r="H396" s="3">
+        <v>80</v>
+      </c>
+      <c r="I396" s="3">
+        <v>75</v>
+      </c>
+      <c r="J396" s="2">
+        <v>3</v>
+      </c>
+      <c r="K396" s="3">
+        <v>15</v>
+      </c>
+      <c r="P396" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3760, name: "ウオノラゴン", hit_point: 90, attack: 90, block: 100, contact: 70, defense: 80, speed: 75, category_1: 3, category_2: 15)</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16">
       <c r="A397">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1">
+      <c r="B397">
+        <v>3770</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D397" s="3">
+        <v>90</v>
+      </c>
+      <c r="E397" s="3">
+        <v>90</v>
+      </c>
+      <c r="F397" s="3">
+        <v>100</v>
+      </c>
+      <c r="G397" s="3">
+        <v>80</v>
+      </c>
+      <c r="H397" s="3">
+        <v>90</v>
+      </c>
+      <c r="I397" s="3">
+        <v>55</v>
+      </c>
+      <c r="J397" s="2">
+        <v>3</v>
+      </c>
+      <c r="K397" s="3">
+        <v>6</v>
+      </c>
+      <c r="P397" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3770, name: "ウオチルドン", hit_point: 90, attack: 90, block: 100, contact: 80, defense: 90, speed: 55, category_1: 3, category_2: 6)</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16">
       <c r="A398">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1">
+      <c r="B398">
+        <v>3780</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D398" s="3">
+        <v>39</v>
+      </c>
+      <c r="E398" s="3">
+        <v>52</v>
+      </c>
+      <c r="F398" s="3">
+        <v>43</v>
+      </c>
+      <c r="G398" s="3">
+        <v>60</v>
+      </c>
+      <c r="H398" s="3">
+        <v>50</v>
+      </c>
+      <c r="I398" s="3">
+        <v>65</v>
+      </c>
+      <c r="J398" s="2">
+        <v>2</v>
+      </c>
+      <c r="K398" s="3">
+        <v>0</v>
+      </c>
+      <c r="P398" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3780, name: "ヒトカゲ", hit_point: 39, attack: 52, block: 43, contact: 60, defense: 50, speed: 65, category_1: 2, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16">
       <c r="A399">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1">
+      <c r="B399">
+        <v>3790</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D399" s="3">
+        <v>58</v>
+      </c>
+      <c r="E399" s="3">
+        <v>64</v>
+      </c>
+      <c r="F399" s="3">
+        <v>58</v>
+      </c>
+      <c r="G399" s="3">
+        <v>80</v>
+      </c>
+      <c r="H399" s="3">
+        <v>65</v>
+      </c>
+      <c r="I399" s="3">
+        <v>80</v>
+      </c>
+      <c r="J399" s="2">
+        <v>2</v>
+      </c>
+      <c r="K399" s="3">
+        <v>0</v>
+      </c>
+      <c r="P399" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3790, name: "リザード", hit_point: 58, attack: 64, block: 58, contact: 80, defense: 65, speed: 80, category_1: 2, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16">
       <c r="A400">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1">
+      <c r="B400">
+        <v>3800</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D400" s="3">
+        <v>78</v>
+      </c>
+      <c r="E400" s="3">
+        <v>84</v>
+      </c>
+      <c r="F400" s="3">
+        <v>78</v>
+      </c>
+      <c r="G400" s="3">
+        <v>109</v>
+      </c>
+      <c r="H400" s="3">
+        <v>85</v>
+      </c>
+      <c r="I400" s="3">
+        <v>100</v>
+      </c>
+      <c r="J400" s="2">
+        <v>2</v>
+      </c>
+      <c r="K400" s="3">
+        <v>10</v>
+      </c>
+      <c r="P400" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3800, name: "リザードン", hit_point: 78, attack: 84, block: 78, contact: 109, defense: 85, speed: 100, category_1: 2, category_2: 10)</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16">
       <c r="A401">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1">
+      <c r="B401">
+        <v>3810</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D401" s="3">
+        <v>95</v>
+      </c>
+      <c r="E401" s="3">
+        <v>95</v>
+      </c>
+      <c r="F401" s="3">
+        <v>95</v>
+      </c>
+      <c r="G401" s="3">
+        <v>95</v>
+      </c>
+      <c r="H401" s="3">
+        <v>95</v>
+      </c>
+      <c r="I401" s="3">
+        <v>59</v>
+      </c>
+      <c r="J401" s="2">
+        <v>1</v>
+      </c>
+      <c r="K401" s="3">
+        <v>0</v>
+      </c>
+      <c r="P401" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3810, name: "タイプ：ヌル", hit_point: 95, attack: 95, block: 95, contact: 95, defense: 95, speed: 59, category_1: 1, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16">
       <c r="A402">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:1">
+      <c r="B402">
+        <v>3820</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D402" s="3">
+        <v>95</v>
+      </c>
+      <c r="E402" s="3">
+        <v>95</v>
+      </c>
+      <c r="F402" s="3">
+        <v>95</v>
+      </c>
+      <c r="G402" s="3">
+        <v>95</v>
+      </c>
+      <c r="H402" s="3">
+        <v>95</v>
+      </c>
+      <c r="I402" s="3">
+        <v>95</v>
+      </c>
+      <c r="J402" s="2">
+        <v>1</v>
+      </c>
+      <c r="K402" s="3">
+        <v>0</v>
+      </c>
+      <c r="P402" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3820, name: "シルヴァディ", hit_point: 95, attack: 95, block: 95, contact: 95, defense: 95, speed: 95, category_1: 1, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16">
       <c r="A403">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:1">
+      <c r="B403">
+        <v>3830</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D403" s="3">
+        <v>50</v>
+      </c>
+      <c r="E403" s="3">
+        <v>64</v>
+      </c>
+      <c r="F403" s="3">
+        <v>50</v>
+      </c>
+      <c r="G403" s="3">
+        <v>45</v>
+      </c>
+      <c r="H403" s="3">
+        <v>50</v>
+      </c>
+      <c r="I403" s="3">
+        <v>41</v>
+      </c>
+      <c r="J403" s="2">
+        <v>13</v>
+      </c>
+      <c r="K403" s="3">
+        <v>9</v>
+      </c>
+      <c r="P403" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3830, name: "ヨーギラス", hit_point: 50, attack: 64, block: 50, contact: 45, defense: 50, speed: 41, category_1: 13, category_2: 9)</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16">
       <c r="A404">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:1">
+      <c r="B404">
+        <v>3840</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D404" s="3">
+        <v>70</v>
+      </c>
+      <c r="E404" s="3">
+        <v>84</v>
+      </c>
+      <c r="F404" s="3">
+        <v>70</v>
+      </c>
+      <c r="G404" s="3">
+        <v>65</v>
+      </c>
+      <c r="H404" s="3">
+        <v>70</v>
+      </c>
+      <c r="I404" s="3">
+        <v>51</v>
+      </c>
+      <c r="J404" s="2">
+        <v>13</v>
+      </c>
+      <c r="K404" s="3">
+        <v>9</v>
+      </c>
+      <c r="P404" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3840, name: "サナギラス", hit_point: 70, attack: 84, block: 70, contact: 65, defense: 70, speed: 51, category_1: 13, category_2: 9)</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16">
       <c r="A405">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:1">
+      <c r="B405">
+        <v>3850</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D405" s="3">
+        <v>100</v>
+      </c>
+      <c r="E405" s="3">
+        <v>134</v>
+      </c>
+      <c r="F405" s="3">
+        <v>110</v>
+      </c>
+      <c r="G405" s="3">
+        <v>95</v>
+      </c>
+      <c r="H405" s="3">
+        <v>100</v>
+      </c>
+      <c r="I405" s="3">
+        <v>61</v>
+      </c>
+      <c r="J405" s="2">
+        <v>13</v>
+      </c>
+      <c r="K405" s="3">
+        <v>16</v>
+      </c>
+      <c r="P405" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3850, name: "バンギラス", hit_point: 100, attack: 134, block: 110, contact: 95, defense: 100, speed: 61, category_1: 13, category_2: 16)</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16">
       <c r="A406">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:1">
+      <c r="B406">
+        <v>3860</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D406" s="3">
+        <v>52</v>
+      </c>
+      <c r="E406" s="3">
+        <v>65</v>
+      </c>
+      <c r="F406" s="3">
+        <v>50</v>
+      </c>
+      <c r="G406" s="3">
+        <v>45</v>
+      </c>
+      <c r="H406" s="3">
+        <v>50</v>
+      </c>
+      <c r="I406" s="3">
+        <v>38</v>
+      </c>
+      <c r="J406" s="2">
+        <v>16</v>
+      </c>
+      <c r="K406" s="3">
+        <v>15</v>
+      </c>
+      <c r="P406" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3860, name: "モノズ", hit_point: 52, attack: 65, block: 50, contact: 45, defense: 50, speed: 38, category_1: 16, category_2: 15)</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16">
       <c r="A407">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:1">
+      <c r="B407">
+        <v>3870</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D407" s="3">
+        <v>72</v>
+      </c>
+      <c r="E407" s="3">
+        <v>85</v>
+      </c>
+      <c r="F407" s="3">
+        <v>70</v>
+      </c>
+      <c r="G407" s="3">
+        <v>65</v>
+      </c>
+      <c r="H407" s="3">
+        <v>70</v>
+      </c>
+      <c r="I407" s="3">
+        <v>58</v>
+      </c>
+      <c r="J407" s="2">
+        <v>16</v>
+      </c>
+      <c r="K407" s="3">
+        <v>15</v>
+      </c>
+      <c r="P407" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3870, name: "ジヘッド", hit_point: 72, attack: 85, block: 70, contact: 65, defense: 70, speed: 58, category_1: 16, category_2: 15)</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16">
       <c r="A408">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:1">
+      <c r="B408">
+        <v>3880</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D408" s="3">
+        <v>92</v>
+      </c>
+      <c r="E408" s="3">
+        <v>105</v>
+      </c>
+      <c r="F408" s="3">
+        <v>90</v>
+      </c>
+      <c r="G408" s="3">
+        <v>125</v>
+      </c>
+      <c r="H408" s="3">
+        <v>90</v>
+      </c>
+      <c r="I408" s="3">
+        <v>98</v>
+      </c>
+      <c r="J408" s="2">
+        <v>16</v>
+      </c>
+      <c r="K408" s="3">
+        <v>15</v>
+      </c>
+      <c r="P408" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3880, name: "サザンドラ", hit_point: 92, attack: 105, block: 90, contact: 125, defense: 90, speed: 98, category_1: 16, category_2: 15)</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16">
       <c r="A409">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:1">
+      <c r="B409">
+        <v>3890</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D409" s="3">
+        <v>45</v>
+      </c>
+      <c r="E409" s="3">
+        <v>50</v>
+      </c>
+      <c r="F409" s="3">
+        <v>35</v>
+      </c>
+      <c r="G409" s="3">
+        <v>55</v>
+      </c>
+      <c r="H409" s="3">
+        <v>75</v>
+      </c>
+      <c r="I409" s="3">
+        <v>40</v>
+      </c>
+      <c r="J409" s="2">
+        <v>15</v>
+      </c>
+      <c r="K409" s="3">
+        <v>0</v>
+      </c>
+      <c r="P409" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3890, name: "ヌメラ", hit_point: 45, attack: 50, block: 35, contact: 55, defense: 75, speed: 40, category_1: 15, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16">
       <c r="A410">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:1">
+      <c r="B410">
+        <v>3900</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D410" s="3">
+        <v>68</v>
+      </c>
+      <c r="E410" s="3">
+        <v>75</v>
+      </c>
+      <c r="F410" s="3">
+        <v>53</v>
+      </c>
+      <c r="G410" s="3">
+        <v>83</v>
+      </c>
+      <c r="H410" s="3">
+        <v>113</v>
+      </c>
+      <c r="I410" s="3">
+        <v>60</v>
+      </c>
+      <c r="J410" s="2">
+        <v>15</v>
+      </c>
+      <c r="K410" s="3">
+        <v>0</v>
+      </c>
+      <c r="P410" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3900, name: "ヌメイル", hit_point: 68, attack: 75, block: 53, contact: 83, defense: 113, speed: 60, category_1: 15, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16">
       <c r="A411">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:1">
+      <c r="B411">
+        <v>3910</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D411" s="3">
+        <v>90</v>
+      </c>
+      <c r="E411" s="3">
+        <v>100</v>
+      </c>
+      <c r="F411" s="3">
+        <v>70</v>
+      </c>
+      <c r="G411" s="3">
+        <v>110</v>
+      </c>
+      <c r="H411" s="3">
+        <v>150</v>
+      </c>
+      <c r="I411" s="3">
+        <v>80</v>
+      </c>
+      <c r="J411" s="2">
+        <v>15</v>
+      </c>
+      <c r="K411" s="3">
+        <v>0</v>
+      </c>
+      <c r="P411" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3910, name: "ヌメルゴン", hit_point: 90, attack: 100, block: 70, contact: 110, defense: 150, speed: 80, category_1: 15, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16">
       <c r="A412">
         <v>411</v>
+      </c>
+      <c r="B412">
+        <v>3920</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D412" s="3">
+        <v>45</v>
+      </c>
+      <c r="E412" s="3">
+        <v>55</v>
+      </c>
+      <c r="F412" s="3">
+        <v>65</v>
+      </c>
+      <c r="G412" s="3">
+        <v>45</v>
+      </c>
+      <c r="H412" s="3">
+        <v>45</v>
+      </c>
+      <c r="I412" s="3">
+        <v>45</v>
+      </c>
+      <c r="J412" s="2">
+        <v>15</v>
+      </c>
+      <c r="K412" s="3">
+        <v>0</v>
+      </c>
+      <c r="P412" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3920, name: "ジャラコ", hit_point: 45, attack: 55, block: 65, contact: 45, defense: 45, speed: 45, category_1: 15, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>3930</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D413" s="3">
+        <v>55</v>
+      </c>
+      <c r="E413" s="3">
+        <v>75</v>
+      </c>
+      <c r="F413" s="3">
+        <v>90</v>
+      </c>
+      <c r="G413" s="3">
+        <v>65</v>
+      </c>
+      <c r="H413" s="3">
+        <v>70</v>
+      </c>
+      <c r="I413" s="3">
+        <v>65</v>
+      </c>
+      <c r="J413" s="2">
+        <v>15</v>
+      </c>
+      <c r="K413" s="3">
+        <v>7</v>
+      </c>
+      <c r="P413" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3930, name: "ジャランゴ", hit_point: 55, attack: 75, block: 90, contact: 65, defense: 70, speed: 65, category_1: 15, category_2: 7)</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>3940</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D414" s="3">
+        <v>75</v>
+      </c>
+      <c r="E414" s="3">
+        <v>110</v>
+      </c>
+      <c r="F414" s="3">
+        <v>125</v>
+      </c>
+      <c r="G414" s="3">
+        <v>100</v>
+      </c>
+      <c r="H414" s="3">
+        <v>105</v>
+      </c>
+      <c r="I414" s="3">
+        <v>85</v>
+      </c>
+      <c r="J414" s="2">
+        <v>15</v>
+      </c>
+      <c r="K414" s="3">
+        <v>7</v>
+      </c>
+      <c r="P414" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3940, name: "ジャラランガ", hit_point: 75, attack: 110, block: 125, contact: 100, defense: 105, speed: 85, category_1: 15, category_2: 7)</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>3950</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D415" s="3">
+        <v>28</v>
+      </c>
+      <c r="E415" s="3">
+        <v>60</v>
+      </c>
+      <c r="F415" s="3">
+        <v>30</v>
+      </c>
+      <c r="G415" s="3">
+        <v>40</v>
+      </c>
+      <c r="H415" s="3">
+        <v>30</v>
+      </c>
+      <c r="I415" s="3">
+        <v>82</v>
+      </c>
+      <c r="J415" s="2">
+        <v>15</v>
+      </c>
+      <c r="K415" s="3">
+        <v>14</v>
+      </c>
+      <c r="P415" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3950, name: "ドラメシヤ", hit_point: 28, attack: 60, block: 30, contact: 40, defense: 30, speed: 82, category_1: 15, category_2: 14)</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>3960</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D416" s="3">
+        <v>68</v>
+      </c>
+      <c r="E416" s="3">
+        <v>80</v>
+      </c>
+      <c r="F416" s="3">
+        <v>50</v>
+      </c>
+      <c r="G416" s="3">
+        <v>60</v>
+      </c>
+      <c r="H416" s="3">
+        <v>50</v>
+      </c>
+      <c r="I416" s="3">
+        <v>102</v>
+      </c>
+      <c r="J416" s="2">
+        <v>15</v>
+      </c>
+      <c r="K416" s="3">
+        <v>14</v>
+      </c>
+      <c r="P416" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3960, name: "ドロンチ", hit_point: 68, attack: 80, block: 50, contact: 60, defense: 50, speed: 102, category_1: 15, category_2: 14)</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>3970</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D417" s="3">
+        <v>88</v>
+      </c>
+      <c r="E417" s="3">
+        <v>120</v>
+      </c>
+      <c r="F417" s="3">
+        <v>75</v>
+      </c>
+      <c r="G417" s="3">
+        <v>100</v>
+      </c>
+      <c r="H417" s="3">
+        <v>75</v>
+      </c>
+      <c r="I417" s="3">
+        <v>142</v>
+      </c>
+      <c r="J417" s="2">
+        <v>15</v>
+      </c>
+      <c r="K417" s="3">
+        <v>14</v>
+      </c>
+      <c r="P417" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3970, name: "ドラパルト", hit_point: 88, attack: 120, block: 75, contact: 100, defense: 75, speed: 142, category_1: 15, category_2: 14)</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>3980</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D418" s="3">
+        <v>92</v>
+      </c>
+      <c r="E418" s="3">
+        <v>130</v>
+      </c>
+      <c r="F418" s="3">
+        <v>115</v>
+      </c>
+      <c r="G418" s="3">
+        <v>80</v>
+      </c>
+      <c r="H418" s="3">
+        <v>115</v>
+      </c>
+      <c r="I418" s="3">
+        <v>138</v>
+      </c>
+      <c r="J418" s="2">
+        <v>18</v>
+      </c>
+      <c r="K418" s="3">
+        <v>0</v>
+      </c>
+      <c r="P418" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3980, name: "ザシアン(歴戦の勇者)", hit_point: 92, attack: 130, block: 115, contact: 80, defense: 115, speed: 138, category_1: 18, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>3981</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D419" s="3">
+        <v>92</v>
+      </c>
+      <c r="E419" s="3">
+        <v>170</v>
+      </c>
+      <c r="F419" s="3">
+        <v>115</v>
+      </c>
+      <c r="G419" s="3">
+        <v>80</v>
+      </c>
+      <c r="H419" s="3">
+        <v>115</v>
+      </c>
+      <c r="I419" s="3">
+        <v>148</v>
+      </c>
+      <c r="J419" s="2">
+        <v>18</v>
+      </c>
+      <c r="K419" s="3">
+        <v>17</v>
+      </c>
+      <c r="P419" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3981, name: "ザシアン(剣の王)", hit_point: 92, attack: 170, block: 115, contact: 80, defense: 115, speed: 148, category_1: 18, category_2: 17)</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>3990</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D420" s="3">
+        <v>92</v>
+      </c>
+      <c r="E420" s="3">
+        <v>130</v>
+      </c>
+      <c r="F420" s="3">
+        <v>115</v>
+      </c>
+      <c r="G420" s="3">
+        <v>80</v>
+      </c>
+      <c r="H420" s="3">
+        <v>115</v>
+      </c>
+      <c r="I420" s="3">
+        <v>138</v>
+      </c>
+      <c r="J420" s="2">
+        <v>7</v>
+      </c>
+      <c r="K420" s="3">
+        <v>0</v>
+      </c>
+      <c r="P420" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3990, name: "ザマゼンタ(歴戦の勇者)", hit_point: 92, attack: 130, block: 115, contact: 80, defense: 115, speed: 138, category_1: 7, category_2: 0)</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>3991</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D421" s="3">
+        <v>92</v>
+      </c>
+      <c r="E421" s="3">
+        <v>130</v>
+      </c>
+      <c r="F421" s="3">
+        <v>145</v>
+      </c>
+      <c r="G421" s="3">
+        <v>80</v>
+      </c>
+      <c r="H421" s="3">
+        <v>145</v>
+      </c>
+      <c r="I421" s="3">
+        <v>128</v>
+      </c>
+      <c r="J421" s="2">
+        <v>7</v>
+      </c>
+      <c r="K421" s="3">
+        <v>17</v>
+      </c>
+      <c r="P421" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 3991, name: "ザマゼンタ(盾の王)", hit_point: 92, attack: 130, block: 145, contact: 80, defense: 145, speed: 128, category_1: 7, category_2: 17)</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>4000</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D422" s="3">
+        <v>140</v>
+      </c>
+      <c r="E422" s="3">
+        <v>85</v>
+      </c>
+      <c r="F422" s="3">
+        <v>95</v>
+      </c>
+      <c r="G422" s="3">
+        <v>145</v>
+      </c>
+      <c r="H422" s="3">
+        <v>95</v>
+      </c>
+      <c r="I422" s="3">
+        <v>130</v>
+      </c>
+      <c r="J422" s="2">
+        <v>8</v>
+      </c>
+      <c r="K422" s="3">
+        <v>15</v>
+      </c>
+      <c r="P422" t="str">
+        <f t="shared" si="1"/>
+        <v>Pokemon.create(zukan_id: 4000, name: "ムゲンダイナ", hit_point: 140, attack: 85, block: 95, contact: 145, defense: 95, speed: 130, category_1: 8, category_2: 15)</v>
       </c>
     </row>
   </sheetData>
